--- a/Custom Kernel Development/Testing Performance/Results/Test 2 - Boot up time Custom Kernel.xlsx
+++ b/Custom Kernel Development/Testing Performance/Results/Test 2 - Boot up time Custom Kernel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bca5a8e5478dcf7d/0 TRABAJO/EDINBURGH/DISSERTATION/unikernel-minf/Custom Kernel Development/Testing Performance/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1022" documentId="11_F25DC773A252ABDACC10482D015B74BA5BDE58F5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50E1ADC5-984B-4ED2-A4C5-B2A98275C3DC}"/>
+  <xr:revisionPtr revIDLastSave="1577" documentId="11_F25DC773A252ABDACC10482D015B74BA5BDE58F5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F30820C0-23F6-467F-AE4C-2864395F9E73}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="30">
   <si>
     <t>HVM</t>
   </si>
@@ -112,6 +112,21 @@
   <si>
     <t>Fedora COS</t>
   </si>
+  <si>
+    <t>DEBIAN</t>
+  </si>
+  <si>
+    <t>PVH</t>
+  </si>
+  <si>
+    <t>FEDORA</t>
+  </si>
+  <si>
+    <t>Launch Window with Terminal</t>
+  </si>
+  <si>
+    <t>Fedora</t>
+  </si>
 </sst>
 </file>
 
@@ -129,7 +144,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,6 +193,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -191,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -218,6 +239,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BK70"/>
+  <dimension ref="A1:BK106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BG55" sqref="BG55"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U85" sqref="U85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,7 +1094,7 @@
       <c r="AP4" s="4">
         <v>12.77</v>
       </c>
-      <c r="AQ4" s="4">
+      <c r="AQ4" s="10">
         <v>0.96</v>
       </c>
       <c r="AR4" s="4">
@@ -1292,7 +1316,7 @@
       <c r="BF5" s="4">
         <v>9.86</v>
       </c>
-      <c r="BG5" s="4">
+      <c r="BG5" s="10">
         <v>0.56999999999999995</v>
       </c>
       <c r="BH5" s="4">
@@ -1651,7 +1675,7 @@
       <c r="BG7" s="4">
         <v>0.7</v>
       </c>
-      <c r="BH7" s="4">
+      <c r="BH7" s="10">
         <v>1.46</v>
       </c>
       <c r="BI7" s="3">
@@ -1801,13 +1825,13 @@
       <c r="AW8" s="4">
         <v>6</v>
       </c>
-      <c r="AX8" s="4">
+      <c r="AX8" s="10">
         <v>7.32</v>
       </c>
-      <c r="AY8" s="4">
+      <c r="AY8" s="10">
         <v>0.45</v>
       </c>
-      <c r="AZ8" s="4">
+      <c r="AZ8" s="10">
         <v>2.21</v>
       </c>
       <c r="BA8" s="3">
@@ -1823,7 +1847,7 @@
       <c r="BE8" s="4">
         <v>6</v>
       </c>
-      <c r="BF8" s="4">
+      <c r="BF8" s="10">
         <v>6.67</v>
       </c>
       <c r="BG8" s="4">
@@ -1957,7 +1981,7 @@
       <c r="AO9" s="4">
         <v>7</v>
       </c>
-      <c r="AP9" s="4">
+      <c r="AP9" s="10">
         <v>7.09</v>
       </c>
       <c r="AQ9" s="4">
@@ -2319,7 +2343,7 @@
       <c r="AQ11" s="4">
         <v>6.83</v>
       </c>
-      <c r="AR11" s="4">
+      <c r="AR11" s="10">
         <v>2.17</v>
       </c>
       <c r="AS11" s="3">
@@ -3315,7 +3339,7 @@
         <v>5.9918224530375701E-14</v>
       </c>
       <c r="AE16" s="7">
-        <f t="shared" ref="AD16:AE16" si="54">_xlfn.STDEV.S(AE4:AE12)</f>
+        <f t="shared" ref="AE16" si="54">_xlfn.STDEV.S(AE4:AE12)</f>
         <v>0</v>
       </c>
       <c r="AG16" s="7" t="s">
@@ -3749,7 +3773,7 @@
         <v>11.53</v>
       </c>
       <c r="AC21" s="3">
-        <f t="shared" ref="AC21:AC30" si="61">Z21+AA21+AB21</f>
+        <f t="shared" ref="AC21" si="61">Z21+AA21+AB21</f>
         <v>85.89</v>
       </c>
       <c r="AD21" s="11">
@@ -3771,7 +3795,7 @@
         <v>10.47</v>
       </c>
       <c r="AK21" s="3">
-        <f t="shared" ref="AK21:AK30" si="62">AH21+AI21+AJ21</f>
+        <f t="shared" ref="AK21" si="62">AH21+AI21+AJ21</f>
         <v>66.709999999999994</v>
       </c>
       <c r="AL21" s="11">
@@ -3793,7 +3817,7 @@
         <v>12.32</v>
       </c>
       <c r="AS21" s="3">
-        <f t="shared" ref="AS21:AS30" si="63">AP21+AQ21+AR21</f>
+        <f t="shared" ref="AS21" si="63">AP21+AQ21+AR21</f>
         <v>97.12</v>
       </c>
       <c r="AT21" s="11">
@@ -3815,7 +3839,7 @@
         <v>14.18</v>
       </c>
       <c r="BA21" s="3">
-        <f t="shared" ref="BA21:BA30" si="64">AX21+AY21+AZ21</f>
+        <f t="shared" ref="BA21" si="64">AX21+AY21+AZ21</f>
         <v>80.77000000000001</v>
       </c>
       <c r="BB21" s="11">
@@ -3837,7 +3861,7 @@
         <v>9.2799999999999994</v>
       </c>
       <c r="BI21" s="3">
-        <f t="shared" ref="BI21:BI30" si="65">BF21+BG21+BH21</f>
+        <f t="shared" ref="BI21" si="65">BF21+BG21+BH21</f>
         <v>59.58</v>
       </c>
       <c r="BJ21" s="11">
@@ -4277,7 +4301,7 @@
         <v>12.3</v>
       </c>
       <c r="AC24" s="3">
-        <f t="shared" ref="AC24:AC33" si="66">Z24+AA24+AB24</f>
+        <f t="shared" ref="AC24:AC30" si="66">Z24+AA24+AB24</f>
         <v>32.430000000000007</v>
       </c>
       <c r="AD24" s="11">
@@ -4299,7 +4323,7 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="AK24" s="3">
-        <f t="shared" ref="AK24:AK33" si="67">AH24+AI24+AJ24</f>
+        <f t="shared" ref="AK24:AK30" si="67">AH24+AI24+AJ24</f>
         <v>32.049999999999997</v>
       </c>
       <c r="AL24" s="11">
@@ -4321,7 +4345,7 @@
         <v>13.13</v>
       </c>
       <c r="AS24" s="3">
-        <f t="shared" ref="AS24:AS33" si="68">AP24+AQ24+AR24</f>
+        <f t="shared" ref="AS24:AS30" si="68">AP24+AQ24+AR24</f>
         <v>33.99</v>
       </c>
       <c r="AT24" s="11">
@@ -4343,7 +4367,7 @@
         <v>11.38</v>
       </c>
       <c r="BA24" s="3">
-        <f t="shared" ref="BA24:BA33" si="69">AX24+AY24+AZ24</f>
+        <f t="shared" ref="BA24:BA30" si="69">AX24+AY24+AZ24</f>
         <v>32.380000000000003</v>
       </c>
       <c r="BB24" s="11">
@@ -4365,7 +4389,7 @@
         <v>12.1</v>
       </c>
       <c r="BI24" s="3">
-        <f t="shared" ref="BI24:BI33" si="70">BF24+BG24+BH24</f>
+        <f t="shared" ref="BI24:BI30" si="70">BF24+BG24+BH24</f>
         <v>26.130000000000003</v>
       </c>
       <c r="BJ24" s="11">
@@ -6576,7 +6600,7 @@
         <v>10.31</v>
       </c>
       <c r="AC39" s="3">
-        <f t="shared" ref="AC39:AC48" si="99">Z39+AA39+AB39</f>
+        <f t="shared" ref="AC39" si="99">Z39+AA39+AB39</f>
         <v>97.210000000000008</v>
       </c>
       <c r="AD39" s="11">
@@ -6598,7 +6622,7 @@
         <v>1.7</v>
       </c>
       <c r="AK39" s="3">
-        <f t="shared" ref="AK39:AK48" si="100">AH39+AI39+AJ39</f>
+        <f t="shared" ref="AK39" si="100">AH39+AI39+AJ39</f>
         <v>84.77</v>
       </c>
       <c r="AL39" s="11">
@@ -6620,7 +6644,7 @@
         <v>7.58</v>
       </c>
       <c r="AS39" s="3">
-        <f t="shared" ref="AS39:AS48" si="101">AP39+AQ39+AR39</f>
+        <f t="shared" ref="AS39" si="101">AP39+AQ39+AR39</f>
         <v>85.58</v>
       </c>
       <c r="AT39" s="11">
@@ -6642,7 +6666,7 @@
         <v>3.9</v>
       </c>
       <c r="BA39" s="3">
-        <f t="shared" ref="BA39:BA48" si="102">AX39+AY39+AZ39</f>
+        <f t="shared" ref="BA39" si="102">AX39+AY39+AZ39</f>
         <v>72.45</v>
       </c>
       <c r="BB39" s="11">
@@ -6664,7 +6688,7 @@
         <v>3.92</v>
       </c>
       <c r="BI39" s="3">
-        <f t="shared" ref="BI39:BI48" si="103">BF39+BG39+BH39</f>
+        <f t="shared" ref="BI39" si="103">BF39+BG39+BH39</f>
         <v>82.440000000000012</v>
       </c>
       <c r="BJ39" s="11">
@@ -7101,7 +7125,7 @@
         <v>6.71</v>
       </c>
       <c r="AC42" s="3">
-        <f t="shared" ref="AC42:AC51" si="104">Z42+AA42+AB42</f>
+        <f t="shared" ref="AC42:AC48" si="104">Z42+AA42+AB42</f>
         <v>30.09</v>
       </c>
       <c r="AD42" s="11">
@@ -7123,7 +7147,7 @@
         <v>9.65</v>
       </c>
       <c r="AK42" s="3">
-        <f t="shared" ref="AK42:AK51" si="105">AH42+AI42+AJ42</f>
+        <f t="shared" ref="AK42:AK48" si="105">AH42+AI42+AJ42</f>
         <v>37.229999999999997</v>
       </c>
       <c r="AL42" s="11">
@@ -7145,7 +7169,7 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="AS42" s="3">
-        <f t="shared" ref="AS42:AS51" si="106">AP42+AQ42+AR42</f>
+        <f t="shared" ref="AS42:AS48" si="106">AP42+AQ42+AR42</f>
         <v>32.53</v>
       </c>
       <c r="AT42" s="11">
@@ -7167,7 +7191,7 @@
         <v>4.24</v>
       </c>
       <c r="BA42" s="3">
-        <f t="shared" ref="BA42:BA51" si="107">AX42+AY42+AZ42</f>
+        <f t="shared" ref="BA42:BA48" si="107">AX42+AY42+AZ42</f>
         <v>32.93</v>
       </c>
       <c r="BB42" s="11">
@@ -7189,7 +7213,7 @@
         <v>5.78</v>
       </c>
       <c r="BI42" s="3">
-        <f t="shared" ref="BI42:BI51" si="108">BF42+BG42+BH42</f>
+        <f t="shared" ref="BI42:BI48" si="108">BF42+BG42+BH42</f>
         <v>34.75</v>
       </c>
       <c r="BJ42" s="11">
@@ -9381,12 +9405,18 @@
       <c r="AG57" s="2">
         <v>1</v>
       </c>
-      <c r="AH57" s="2"/>
-      <c r="AI57" s="2"/>
-      <c r="AJ57" s="2"/>
+      <c r="AH57" s="2">
+        <v>48.87</v>
+      </c>
+      <c r="AI57" s="2">
+        <v>21.87</v>
+      </c>
+      <c r="AJ57" s="2">
+        <v>22.88</v>
+      </c>
       <c r="AK57" s="3">
-        <f t="shared" ref="AK57:AK66" si="129">AH57+AI57+AJ57</f>
-        <v>0</v>
+        <f t="shared" ref="AK57" si="129">AH57+AI57+AJ57</f>
+        <v>93.61999999999999</v>
       </c>
       <c r="AL57" s="11">
         <v>362.54</v>
@@ -9397,50 +9427,68 @@
       <c r="AO57" s="2">
         <v>1</v>
       </c>
-      <c r="AP57" s="2"/>
-      <c r="AQ57" s="2"/>
-      <c r="AR57" s="2"/>
+      <c r="AP57" s="2">
+        <v>44.23</v>
+      </c>
+      <c r="AQ57" s="2">
+        <v>19.18</v>
+      </c>
+      <c r="AR57" s="2">
+        <v>23.28</v>
+      </c>
       <c r="AS57" s="3">
-        <f t="shared" ref="AS57:AS66" si="130">AP57+AQ57+AR57</f>
-        <v>0</v>
+        <f t="shared" ref="AS57" si="130">AP57+AQ57+AR57</f>
+        <v>86.69</v>
       </c>
       <c r="AT57" s="11">
-        <v>362.54</v>
+        <v>393.26</v>
       </c>
       <c r="AU57" s="11">
-        <v>378.92</v>
+        <v>409.64</v>
       </c>
       <c r="AW57" s="2">
         <v>1</v>
       </c>
-      <c r="AX57" s="2"/>
-      <c r="AY57" s="2"/>
-      <c r="AZ57" s="2"/>
+      <c r="AX57" s="2">
+        <v>50.64</v>
+      </c>
+      <c r="AY57" s="2">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="AZ57" s="2">
+        <v>8.9499999999999993</v>
+      </c>
       <c r="BA57" s="3">
-        <f t="shared" ref="BA57:BA66" si="131">AX57+AY57+AZ57</f>
-        <v>0</v>
+        <f t="shared" ref="BA57" si="131">AX57+AY57+AZ57</f>
+        <v>64.400000000000006</v>
       </c>
       <c r="BB57" s="11">
-        <v>362.54</v>
+        <v>495.66</v>
       </c>
       <c r="BC57" s="11">
-        <v>378.92</v>
+        <v>512.04</v>
       </c>
       <c r="BE57" s="2">
         <v>1</v>
       </c>
-      <c r="BF57" s="2"/>
-      <c r="BG57" s="2"/>
-      <c r="BH57" s="2"/>
+      <c r="BF57" s="2">
+        <v>50.74</v>
+      </c>
+      <c r="BG57" s="2">
+        <v>17.670000000000002</v>
+      </c>
+      <c r="BH57" s="2">
+        <v>27.05</v>
+      </c>
       <c r="BI57" s="3">
-        <f t="shared" ref="BI57:BI66" si="132">BF57+BG57+BH57</f>
-        <v>0</v>
+        <f t="shared" ref="BI57" si="132">BF57+BG57+BH57</f>
+        <v>95.46</v>
       </c>
       <c r="BJ57" s="11">
-        <v>362.54</v>
+        <v>1000.76</v>
       </c>
       <c r="BK57" s="11">
-        <v>378.92</v>
+        <v>1024.04</v>
       </c>
     </row>
     <row r="58" spans="1:63" x14ac:dyDescent="0.25">
@@ -9531,12 +9579,18 @@
       <c r="AG58" s="4">
         <v>2</v>
       </c>
-      <c r="AH58" s="4"/>
-      <c r="AI58" s="4"/>
-      <c r="AJ58" s="4"/>
+      <c r="AH58" s="4">
+        <v>9.92</v>
+      </c>
+      <c r="AI58" s="4">
+        <v>25.27</v>
+      </c>
+      <c r="AJ58" s="4">
+        <v>18.7</v>
+      </c>
       <c r="AK58" s="3">
         <f>AH58+AI58+AJ58</f>
-        <v>0</v>
+        <v>53.89</v>
       </c>
       <c r="AL58" s="11">
         <v>362.54</v>
@@ -9547,50 +9601,68 @@
       <c r="AO58" s="4">
         <v>2</v>
       </c>
-      <c r="AP58" s="4"/>
-      <c r="AQ58" s="4"/>
-      <c r="AR58" s="4"/>
+      <c r="AP58" s="4">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="AQ58" s="4">
+        <v>23.29</v>
+      </c>
+      <c r="AR58" s="4">
+        <v>18.28</v>
+      </c>
       <c r="AS58" s="3">
         <f>AP58+AQ58+AR58</f>
-        <v>0</v>
+        <v>49.95</v>
       </c>
       <c r="AT58" s="11">
-        <v>362.54</v>
+        <v>393.26</v>
       </c>
       <c r="AU58" s="11">
-        <v>378.92</v>
+        <v>409.64</v>
       </c>
       <c r="AW58" s="4">
         <v>2</v>
       </c>
-      <c r="AX58" s="4"/>
-      <c r="AY58" s="4"/>
-      <c r="AZ58" s="4"/>
+      <c r="AX58" s="4">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="AY58" s="4">
+        <v>21.86</v>
+      </c>
+      <c r="AZ58" s="4">
+        <v>22.82</v>
+      </c>
       <c r="BA58" s="3">
         <f>AX58+AY58+AZ58</f>
-        <v>0</v>
+        <v>53.730000000000004</v>
       </c>
       <c r="BB58" s="11">
-        <v>362.54</v>
+        <v>495.66</v>
       </c>
       <c r="BC58" s="11">
-        <v>378.92</v>
+        <v>512.04</v>
       </c>
       <c r="BE58" s="4">
         <v>2</v>
       </c>
-      <c r="BF58" s="4"/>
-      <c r="BG58" s="4"/>
-      <c r="BH58" s="4"/>
+      <c r="BF58" s="4">
+        <v>7.65</v>
+      </c>
+      <c r="BG58" s="4">
+        <v>20.09</v>
+      </c>
+      <c r="BH58" s="4">
+        <v>24.36</v>
+      </c>
       <c r="BI58" s="3">
         <f>BF58+BG58+BH58</f>
-        <v>0</v>
+        <v>52.1</v>
       </c>
       <c r="BJ58" s="11">
-        <v>362.54</v>
+        <v>1000.76</v>
       </c>
       <c r="BK58" s="11">
-        <v>378.92</v>
+        <v>1024.04</v>
       </c>
     </row>
     <row r="59" spans="1:63" x14ac:dyDescent="0.25">
@@ -9681,12 +9753,18 @@
       <c r="AG59" s="4">
         <v>3</v>
       </c>
-      <c r="AH59" s="4"/>
-      <c r="AI59" s="4"/>
-      <c r="AJ59" s="4"/>
+      <c r="AH59" s="4">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="AI59" s="4">
+        <v>25.3</v>
+      </c>
+      <c r="AJ59" s="4">
+        <v>20.97</v>
+      </c>
       <c r="AK59" s="3">
         <f>AH59+AI59+AJ59</f>
-        <v>0</v>
+        <v>55.74</v>
       </c>
       <c r="AL59" s="11">
         <v>362.54</v>
@@ -9697,50 +9775,68 @@
       <c r="AO59" s="4">
         <v>3</v>
       </c>
-      <c r="AP59" s="4"/>
-      <c r="AQ59" s="4"/>
-      <c r="AR59" s="4"/>
+      <c r="AP59" s="4">
+        <v>8.99</v>
+      </c>
+      <c r="AQ59" s="4">
+        <v>23.55</v>
+      </c>
+      <c r="AR59" s="4">
+        <v>23.46</v>
+      </c>
       <c r="AS59" s="3">
         <f>AP59+AQ59+AR59</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AT59" s="11">
-        <v>362.54</v>
+        <v>393.26</v>
       </c>
       <c r="AU59" s="11">
-        <v>378.92</v>
+        <v>409.64</v>
       </c>
       <c r="AW59" s="4">
         <v>3</v>
       </c>
-      <c r="AX59" s="4"/>
-      <c r="AY59" s="4"/>
-      <c r="AZ59" s="4"/>
+      <c r="AX59" s="4">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="AY59" s="4">
+        <v>17.72</v>
+      </c>
+      <c r="AZ59" s="4">
+        <v>25.98</v>
+      </c>
       <c r="BA59" s="3">
         <f>AX59+AY59+AZ59</f>
-        <v>0</v>
+        <v>52.319999999999993</v>
       </c>
       <c r="BB59" s="11">
-        <v>362.54</v>
+        <v>495.66</v>
       </c>
       <c r="BC59" s="11">
-        <v>378.92</v>
+        <v>512.04</v>
       </c>
       <c r="BE59" s="4">
         <v>3</v>
       </c>
-      <c r="BF59" s="4"/>
-      <c r="BG59" s="4"/>
-      <c r="BH59" s="4"/>
+      <c r="BF59" s="4">
+        <v>7.71</v>
+      </c>
+      <c r="BG59" s="4">
+        <v>23.32</v>
+      </c>
+      <c r="BH59" s="4">
+        <v>20.43</v>
+      </c>
       <c r="BI59" s="3">
         <f>BF59+BG59+BH59</f>
-        <v>0</v>
+        <v>51.46</v>
       </c>
       <c r="BJ59" s="11">
-        <v>362.54</v>
+        <v>1000.76</v>
       </c>
       <c r="BK59" s="11">
-        <v>378.92</v>
+        <v>1024.04</v>
       </c>
     </row>
     <row r="60" spans="1:63" x14ac:dyDescent="0.25">
@@ -9831,12 +9927,18 @@
       <c r="AG60" s="4">
         <v>4</v>
       </c>
-      <c r="AH60" s="4"/>
-      <c r="AI60" s="4"/>
-      <c r="AJ60" s="4"/>
+      <c r="AH60" s="4">
+        <v>8.16</v>
+      </c>
+      <c r="AI60" s="4">
+        <v>17.809999999999999</v>
+      </c>
+      <c r="AJ60" s="4">
+        <v>19.239999999999998</v>
+      </c>
       <c r="AK60" s="3">
-        <f t="shared" ref="AK60:AK69" si="133">AH60+AI60+AJ60</f>
-        <v>0</v>
+        <f t="shared" ref="AK60:AK66" si="133">AH60+AI60+AJ60</f>
+        <v>45.209999999999994</v>
       </c>
       <c r="AL60" s="11">
         <v>362.54</v>
@@ -9847,50 +9949,68 @@
       <c r="AO60" s="4">
         <v>4</v>
       </c>
-      <c r="AP60" s="4"/>
-      <c r="AQ60" s="4"/>
-      <c r="AR60" s="4"/>
+      <c r="AP60" s="4">
+        <v>10.36</v>
+      </c>
+      <c r="AQ60" s="4">
+        <v>22.19</v>
+      </c>
+      <c r="AR60" s="4">
+        <v>19.91</v>
+      </c>
       <c r="AS60" s="3">
-        <f t="shared" ref="AS60:AS69" si="134">AP60+AQ60+AR60</f>
-        <v>0</v>
+        <f t="shared" ref="AS60:AS66" si="134">AP60+AQ60+AR60</f>
+        <v>52.459999999999994</v>
       </c>
       <c r="AT60" s="11">
-        <v>362.54</v>
+        <v>393.26</v>
       </c>
       <c r="AU60" s="11">
-        <v>378.92</v>
+        <v>409.64</v>
       </c>
       <c r="AW60" s="4">
         <v>4</v>
       </c>
-      <c r="AX60" s="4"/>
-      <c r="AY60" s="4"/>
-      <c r="AZ60" s="4"/>
+      <c r="AX60" s="4">
+        <v>8.36</v>
+      </c>
+      <c r="AY60" s="4">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="AZ60" s="4">
+        <v>28.68</v>
+      </c>
       <c r="BA60" s="3">
-        <f t="shared" ref="BA60:BA69" si="135">AX60+AY60+AZ60</f>
-        <v>0</v>
+        <f t="shared" ref="BA60:BA66" si="135">AX60+AY60+AZ60</f>
+        <v>53.53</v>
       </c>
       <c r="BB60" s="11">
-        <v>362.54</v>
+        <v>495.66</v>
       </c>
       <c r="BC60" s="11">
-        <v>378.92</v>
+        <v>512.04</v>
       </c>
       <c r="BE60" s="4">
         <v>4</v>
       </c>
-      <c r="BF60" s="4"/>
-      <c r="BG60" s="4"/>
-      <c r="BH60" s="4"/>
+      <c r="BF60" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="BG60" s="4">
+        <v>24.04</v>
+      </c>
+      <c r="BH60" s="4">
+        <v>19.91</v>
+      </c>
       <c r="BI60" s="3">
-        <f t="shared" ref="BI60:BI69" si="136">BF60+BG60+BH60</f>
-        <v>0</v>
+        <f t="shared" ref="BI60:BI66" si="136">BF60+BG60+BH60</f>
+        <v>52.849999999999994</v>
       </c>
       <c r="BJ60" s="11">
-        <v>362.54</v>
+        <v>1000.76</v>
       </c>
       <c r="BK60" s="11">
-        <v>378.92</v>
+        <v>1024.04</v>
       </c>
     </row>
     <row r="61" spans="1:63" x14ac:dyDescent="0.25">
@@ -9981,12 +10101,18 @@
       <c r="AG61" s="4">
         <v>5</v>
       </c>
-      <c r="AH61" s="4"/>
-      <c r="AI61" s="4"/>
-      <c r="AJ61" s="4"/>
+      <c r="AH61" s="4">
+        <v>8.51</v>
+      </c>
+      <c r="AI61" s="4">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="AJ61" s="4">
+        <v>22.24</v>
+      </c>
       <c r="AK61" s="3">
         <f t="shared" si="133"/>
-        <v>0</v>
+        <v>47.31</v>
       </c>
       <c r="AL61" s="11">
         <v>362.54</v>
@@ -9997,50 +10123,68 @@
       <c r="AO61" s="4">
         <v>5</v>
       </c>
-      <c r="AP61" s="4"/>
-      <c r="AQ61" s="4"/>
-      <c r="AR61" s="4"/>
+      <c r="AP61" s="4">
+        <v>10.59</v>
+      </c>
+      <c r="AQ61" s="4">
+        <v>25.16</v>
+      </c>
+      <c r="AR61" s="4">
+        <v>18.78</v>
+      </c>
       <c r="AS61" s="3">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>54.53</v>
       </c>
       <c r="AT61" s="11">
-        <v>362.54</v>
+        <v>393.26</v>
       </c>
       <c r="AU61" s="11">
-        <v>378.92</v>
+        <v>409.64</v>
       </c>
       <c r="AW61" s="4">
         <v>5</v>
       </c>
-      <c r="AX61" s="4"/>
-      <c r="AY61" s="4"/>
-      <c r="AZ61" s="4"/>
+      <c r="AX61" s="4">
+        <v>6.64</v>
+      </c>
+      <c r="AY61" s="4">
+        <v>16.23</v>
+      </c>
+      <c r="AZ61" s="4">
+        <v>24.75</v>
+      </c>
       <c r="BA61" s="3">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>47.620000000000005</v>
       </c>
       <c r="BB61" s="11">
-        <v>362.54</v>
+        <v>495.66</v>
       </c>
       <c r="BC61" s="11">
-        <v>378.92</v>
+        <v>512.04</v>
       </c>
       <c r="BE61" s="4">
         <v>5</v>
       </c>
-      <c r="BF61" s="4"/>
-      <c r="BG61" s="4"/>
-      <c r="BH61" s="4"/>
+      <c r="BF61" s="4">
+        <v>10.34</v>
+      </c>
+      <c r="BG61" s="4">
+        <v>18.28</v>
+      </c>
+      <c r="BH61" s="4">
+        <v>25.89</v>
+      </c>
       <c r="BI61" s="3">
         <f t="shared" si="136"/>
-        <v>0</v>
+        <v>54.510000000000005</v>
       </c>
       <c r="BJ61" s="11">
-        <v>362.54</v>
+        <v>1000.76</v>
       </c>
       <c r="BK61" s="11">
-        <v>378.92</v>
+        <v>1024.04</v>
       </c>
     </row>
     <row r="62" spans="1:63" x14ac:dyDescent="0.25">
@@ -10131,12 +10275,18 @@
       <c r="AG62" s="4">
         <v>6</v>
       </c>
-      <c r="AH62" s="4"/>
-      <c r="AI62" s="4"/>
-      <c r="AJ62" s="4"/>
+      <c r="AH62" s="4">
+        <v>8.82</v>
+      </c>
+      <c r="AI62" s="4">
+        <v>24.76</v>
+      </c>
+      <c r="AJ62" s="4">
+        <v>18.7</v>
+      </c>
       <c r="AK62" s="3">
         <f t="shared" si="133"/>
-        <v>0</v>
+        <v>52.28</v>
       </c>
       <c r="AL62" s="11">
         <v>362.54</v>
@@ -10147,50 +10297,68 @@
       <c r="AO62" s="4">
         <v>6</v>
       </c>
-      <c r="AP62" s="4"/>
-      <c r="AQ62" s="4"/>
-      <c r="AR62" s="4"/>
+      <c r="AP62" s="4">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AQ62" s="4">
+        <v>17.02</v>
+      </c>
+      <c r="AR62" s="4">
+        <v>21.47</v>
+      </c>
       <c r="AS62" s="3">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>47.79</v>
       </c>
       <c r="AT62" s="11">
-        <v>362.54</v>
+        <v>393.26</v>
       </c>
       <c r="AU62" s="11">
-        <v>378.92</v>
+        <v>409.64</v>
       </c>
       <c r="AW62" s="4">
         <v>6</v>
       </c>
-      <c r="AX62" s="4"/>
-      <c r="AY62" s="4"/>
-      <c r="AZ62" s="4"/>
+      <c r="AX62" s="4">
+        <v>7</v>
+      </c>
+      <c r="AY62" s="4">
+        <v>24.28</v>
+      </c>
+      <c r="AZ62" s="4">
+        <v>17.05</v>
+      </c>
       <c r="BA62" s="3">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>48.33</v>
       </c>
       <c r="BB62" s="11">
-        <v>362.54</v>
+        <v>495.66</v>
       </c>
       <c r="BC62" s="11">
-        <v>378.92</v>
+        <v>512.04</v>
       </c>
       <c r="BE62" s="4">
         <v>6</v>
       </c>
-      <c r="BF62" s="4"/>
-      <c r="BG62" s="4"/>
-      <c r="BH62" s="4"/>
+      <c r="BF62" s="4">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="BG62" s="4">
+        <v>24.57</v>
+      </c>
+      <c r="BH62" s="4">
+        <v>19.53</v>
+      </c>
       <c r="BI62" s="3">
         <f t="shared" si="136"/>
-        <v>0</v>
+        <v>52.57</v>
       </c>
       <c r="BJ62" s="11">
-        <v>362.54</v>
+        <v>1000.76</v>
       </c>
       <c r="BK62" s="11">
-        <v>378.92</v>
+        <v>1024.04</v>
       </c>
     </row>
     <row r="63" spans="1:63" x14ac:dyDescent="0.25">
@@ -10281,12 +10449,18 @@
       <c r="AG63" s="4">
         <v>7</v>
       </c>
-      <c r="AH63" s="4"/>
-      <c r="AI63" s="4"/>
-      <c r="AJ63" s="4"/>
+      <c r="AH63" s="4">
+        <v>10.91</v>
+      </c>
+      <c r="AI63" s="4">
+        <v>18.12</v>
+      </c>
+      <c r="AJ63" s="4">
+        <v>17.09</v>
+      </c>
       <c r="AK63" s="3">
         <f t="shared" si="133"/>
-        <v>0</v>
+        <v>46.120000000000005</v>
       </c>
       <c r="AL63" s="11">
         <v>362.54</v>
@@ -10297,50 +10471,68 @@
       <c r="AO63" s="4">
         <v>7</v>
       </c>
-      <c r="AP63" s="4"/>
-      <c r="AQ63" s="4"/>
-      <c r="AR63" s="4"/>
+      <c r="AP63" s="4">
+        <v>8.73</v>
+      </c>
+      <c r="AQ63" s="4">
+        <v>25.56</v>
+      </c>
+      <c r="AR63" s="4">
+        <v>16.02</v>
+      </c>
       <c r="AS63" s="3">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>50.31</v>
       </c>
       <c r="AT63" s="11">
-        <v>362.54</v>
+        <v>393.26</v>
       </c>
       <c r="AU63" s="11">
-        <v>378.92</v>
+        <v>409.64</v>
       </c>
       <c r="AW63" s="4">
         <v>7</v>
       </c>
-      <c r="AX63" s="4"/>
-      <c r="AY63" s="4"/>
-      <c r="AZ63" s="4"/>
+      <c r="AX63" s="4">
+        <v>9.15</v>
+      </c>
+      <c r="AY63" s="4">
+        <v>23.34</v>
+      </c>
+      <c r="AZ63" s="4">
+        <v>21.27</v>
+      </c>
       <c r="BA63" s="3">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>53.760000000000005</v>
       </c>
       <c r="BB63" s="11">
-        <v>362.54</v>
+        <v>495.66</v>
       </c>
       <c r="BC63" s="11">
-        <v>378.92</v>
+        <v>512.04</v>
       </c>
       <c r="BE63" s="4">
         <v>7</v>
       </c>
-      <c r="BF63" s="4"/>
-      <c r="BG63" s="4"/>
-      <c r="BH63" s="4"/>
+      <c r="BF63" s="4">
+        <v>8.61</v>
+      </c>
+      <c r="BG63" s="4">
+        <v>18.260000000000002</v>
+      </c>
+      <c r="BH63" s="4">
+        <v>26.36</v>
+      </c>
       <c r="BI63" s="3">
         <f t="shared" si="136"/>
-        <v>0</v>
+        <v>53.230000000000004</v>
       </c>
       <c r="BJ63" s="11">
-        <v>362.54</v>
+        <v>1000.76</v>
       </c>
       <c r="BK63" s="11">
-        <v>378.92</v>
+        <v>1024.04</v>
       </c>
     </row>
     <row r="64" spans="1:63" x14ac:dyDescent="0.25">
@@ -10431,12 +10623,18 @@
       <c r="AG64" s="4">
         <v>8</v>
       </c>
-      <c r="AH64" s="4"/>
-      <c r="AI64" s="4"/>
-      <c r="AJ64" s="4"/>
+      <c r="AH64" s="4">
+        <v>11.43</v>
+      </c>
+      <c r="AI64" s="4">
+        <v>24.84</v>
+      </c>
+      <c r="AJ64" s="4">
+        <v>19.309999999999999</v>
+      </c>
       <c r="AK64" s="3">
         <f t="shared" si="133"/>
-        <v>0</v>
+        <v>55.58</v>
       </c>
       <c r="AL64" s="11">
         <v>362.54</v>
@@ -10447,50 +10645,68 @@
       <c r="AO64" s="4">
         <v>8</v>
       </c>
-      <c r="AP64" s="4"/>
-      <c r="AQ64" s="4"/>
-      <c r="AR64" s="4"/>
+      <c r="AP64" s="4">
+        <v>10.57</v>
+      </c>
+      <c r="AQ64" s="4">
+        <v>23.6</v>
+      </c>
+      <c r="AR64" s="4">
+        <v>19.190000000000001</v>
+      </c>
       <c r="AS64" s="3">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>53.36</v>
       </c>
       <c r="AT64" s="11">
-        <v>362.54</v>
+        <v>393.26</v>
       </c>
       <c r="AU64" s="11">
-        <v>378.92</v>
+        <v>409.64</v>
       </c>
       <c r="AW64" s="4">
         <v>8</v>
       </c>
-      <c r="AX64" s="4"/>
-      <c r="AY64" s="4"/>
-      <c r="AZ64" s="4"/>
+      <c r="AX64" s="4">
+        <v>9.16</v>
+      </c>
+      <c r="AY64" s="4">
+        <v>24.35</v>
+      </c>
+      <c r="AZ64" s="4">
+        <v>15.07</v>
+      </c>
       <c r="BA64" s="3">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>48.580000000000005</v>
       </c>
       <c r="BB64" s="11">
-        <v>362.54</v>
+        <v>495.66</v>
       </c>
       <c r="BC64" s="11">
-        <v>378.92</v>
+        <v>512.04</v>
       </c>
       <c r="BE64" s="4">
         <v>8</v>
       </c>
-      <c r="BF64" s="4"/>
-      <c r="BG64" s="4"/>
-      <c r="BH64" s="4"/>
+      <c r="BF64" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="BG64" s="4">
+        <v>23.41</v>
+      </c>
+      <c r="BH64" s="4">
+        <v>18.899999999999999</v>
+      </c>
       <c r="BI64" s="3">
         <f t="shared" si="136"/>
-        <v>0</v>
+        <v>52.61</v>
       </c>
       <c r="BJ64" s="11">
-        <v>362.54</v>
+        <v>1000.76</v>
       </c>
       <c r="BK64" s="11">
-        <v>378.92</v>
+        <v>1024.04</v>
       </c>
     </row>
     <row r="65" spans="1:63" x14ac:dyDescent="0.25">
@@ -10581,12 +10797,18 @@
       <c r="AG65" s="4">
         <v>9</v>
       </c>
-      <c r="AH65" s="4"/>
-      <c r="AI65" s="4"/>
-      <c r="AJ65" s="4"/>
+      <c r="AH65" s="4">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="AI65" s="4">
+        <v>23.39</v>
+      </c>
+      <c r="AJ65" s="4">
+        <v>16.989999999999998</v>
+      </c>
       <c r="AK65" s="3">
         <f t="shared" si="133"/>
-        <v>0</v>
+        <v>50.510000000000005</v>
       </c>
       <c r="AL65" s="11">
         <v>362.54</v>
@@ -10597,50 +10819,68 @@
       <c r="AO65" s="4">
         <v>9</v>
       </c>
-      <c r="AP65" s="4"/>
-      <c r="AQ65" s="4"/>
-      <c r="AR65" s="4"/>
+      <c r="AP65" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="AQ65" s="4">
+        <v>23.37</v>
+      </c>
+      <c r="AR65" s="4">
+        <v>20.93</v>
+      </c>
       <c r="AS65" s="3">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>51.8</v>
       </c>
       <c r="AT65" s="11">
-        <v>362.54</v>
+        <v>393.26</v>
       </c>
       <c r="AU65" s="11">
-        <v>378.92</v>
+        <v>409.64</v>
       </c>
       <c r="AW65" s="4">
         <v>9</v>
       </c>
-      <c r="AX65" s="4"/>
-      <c r="AY65" s="4"/>
-      <c r="AZ65" s="4"/>
+      <c r="AX65" s="4">
+        <v>9.18</v>
+      </c>
+      <c r="AY65" s="4">
+        <v>23.89</v>
+      </c>
+      <c r="AZ65" s="4">
+        <v>18.66</v>
+      </c>
       <c r="BA65" s="3">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>51.730000000000004</v>
       </c>
       <c r="BB65" s="11">
-        <v>362.54</v>
+        <v>495.66</v>
       </c>
       <c r="BC65" s="11">
-        <v>378.92</v>
+        <v>512.04</v>
       </c>
       <c r="BE65" s="4">
         <v>9</v>
       </c>
-      <c r="BF65" s="4"/>
-      <c r="BG65" s="4"/>
-      <c r="BH65" s="4"/>
+      <c r="BF65" s="4">
+        <v>8.84</v>
+      </c>
+      <c r="BG65" s="4">
+        <v>24.25</v>
+      </c>
+      <c r="BH65" s="4">
+        <v>24.33</v>
+      </c>
       <c r="BI65" s="3">
         <f t="shared" si="136"/>
-        <v>0</v>
+        <v>57.42</v>
       </c>
       <c r="BJ65" s="11">
-        <v>362.54</v>
+        <v>1000.76</v>
       </c>
       <c r="BK65" s="11">
-        <v>378.92</v>
+        <v>1024.04</v>
       </c>
     </row>
     <row r="66" spans="1:63" x14ac:dyDescent="0.25">
@@ -10731,12 +10971,18 @@
       <c r="AG66" s="4">
         <v>10</v>
       </c>
-      <c r="AH66" s="4"/>
-      <c r="AI66" s="4"/>
-      <c r="AJ66" s="4"/>
+      <c r="AH66" s="4">
+        <v>8.65</v>
+      </c>
+      <c r="AI66" s="4">
+        <v>24.37</v>
+      </c>
+      <c r="AJ66" s="4">
+        <v>18.46</v>
+      </c>
       <c r="AK66" s="3">
         <f t="shared" si="133"/>
-        <v>0</v>
+        <v>51.480000000000004</v>
       </c>
       <c r="AL66" s="11">
         <v>362.54</v>
@@ -10747,50 +10993,68 @@
       <c r="AO66" s="4">
         <v>10</v>
       </c>
-      <c r="AP66" s="4"/>
-      <c r="AQ66" s="4"/>
-      <c r="AR66" s="4"/>
+      <c r="AP66" s="4">
+        <v>8</v>
+      </c>
+      <c r="AQ66" s="4">
+        <v>25.29</v>
+      </c>
+      <c r="AR66" s="4">
+        <v>16.46</v>
+      </c>
       <c r="AS66" s="3">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>49.75</v>
       </c>
       <c r="AT66" s="11">
-        <v>362.54</v>
+        <v>393.26</v>
       </c>
       <c r="AU66" s="11">
-        <v>378.92</v>
+        <v>409.64</v>
       </c>
       <c r="AW66" s="4">
         <v>10</v>
       </c>
-      <c r="AX66" s="4"/>
-      <c r="AY66" s="4"/>
-      <c r="AZ66" s="4"/>
+      <c r="AX66" s="4">
+        <v>9.65</v>
+      </c>
+      <c r="AY66" s="4">
+        <v>24.35</v>
+      </c>
+      <c r="AZ66" s="4">
+        <v>20.59</v>
+      </c>
       <c r="BA66" s="3">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>54.59</v>
       </c>
       <c r="BB66" s="11">
-        <v>362.54</v>
+        <v>495.66</v>
       </c>
       <c r="BC66" s="11">
-        <v>378.92</v>
+        <v>512.04</v>
       </c>
       <c r="BE66" s="4">
         <v>10</v>
       </c>
-      <c r="BF66" s="4"/>
-      <c r="BG66" s="4"/>
-      <c r="BH66" s="4"/>
+      <c r="BF66" s="4">
+        <v>8.18</v>
+      </c>
+      <c r="BG66" s="4">
+        <v>23.29</v>
+      </c>
+      <c r="BH66" s="4">
+        <v>19.77</v>
+      </c>
       <c r="BI66" s="3">
         <f t="shared" si="136"/>
-        <v>0</v>
+        <v>51.239999999999995</v>
       </c>
       <c r="BJ66" s="11">
-        <v>362.54</v>
+        <v>1000.76</v>
       </c>
       <c r="BK66" s="11">
-        <v>378.92</v>
+        <v>1024.04</v>
       </c>
     </row>
     <row r="67" spans="1:63" x14ac:dyDescent="0.25">
@@ -10881,21 +11145,21 @@
       <c r="AG67" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AH67" s="6" t="e">
+      <c r="AH67" s="6">
         <f>AVERAGE(AH58:AH66)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI67" s="6" t="e">
+        <v>9.5555555555555554</v>
+      </c>
+      <c r="AI67" s="6">
         <f>AVERAGE(AI58:AI66)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ67" s="9" t="e">
+        <v>22.268888888888892</v>
+      </c>
+      <c r="AJ67" s="9">
         <f t="shared" ref="AJ67:AM67" si="137">AVERAGE(AJ58:AJ66)</f>
-        <v>#DIV/0!</v>
+        <v>19.077777777777779</v>
       </c>
       <c r="AK67" s="6">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>50.902222222222214</v>
       </c>
       <c r="AL67" s="6">
         <f t="shared" si="137"/>
@@ -10908,83 +11172,83 @@
       <c r="AO67" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AP67" s="6" t="e">
+      <c r="AP67" s="6">
         <f>AVERAGE(AP58:AP66)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ67" s="6" t="e">
+        <v>9.1577777777777793</v>
+      </c>
+      <c r="AQ67" s="6">
         <f>AVERAGE(AQ58:AQ66)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR67" s="9" t="e">
+        <v>23.225555555555552</v>
+      </c>
+      <c r="AR67" s="9">
         <f t="shared" ref="AR67:AU67" si="138">AVERAGE(AR58:AR66)</f>
-        <v>#DIV/0!</v>
+        <v>19.388888888888893</v>
       </c>
       <c r="AS67" s="6">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>51.772222222222226</v>
       </c>
       <c r="AT67" s="6">
         <f t="shared" si="138"/>
-        <v>362.54</v>
+        <v>393.26</v>
       </c>
       <c r="AU67" s="6">
         <f t="shared" si="138"/>
-        <v>378.92</v>
+        <v>409.63999999999993</v>
       </c>
       <c r="AW67" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AX67" s="6" t="e">
+      <c r="AX67" s="6">
         <f>AVERAGE(AX58:AX66)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AY67" s="6" t="e">
+        <v>8.5344444444444445</v>
+      </c>
+      <c r="AY67" s="6">
         <f>AVERAGE(AY58:AY66)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AZ67" s="9" t="e">
+        <v>21.39</v>
+      </c>
+      <c r="AZ67" s="9">
         <f t="shared" ref="AZ67:BC67" si="139">AVERAGE(AZ58:AZ66)</f>
-        <v>#DIV/0!</v>
+        <v>21.652222222222221</v>
       </c>
       <c r="BA67" s="6">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>51.576666666666661</v>
       </c>
       <c r="BB67" s="6">
         <f t="shared" si="139"/>
-        <v>362.54</v>
+        <v>495.65999999999997</v>
       </c>
       <c r="BC67" s="6">
         <f t="shared" si="139"/>
-        <v>378.92</v>
+        <v>512.04</v>
       </c>
       <c r="BE67" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="BF67" s="6" t="e">
+      <c r="BF67" s="6">
         <f>AVERAGE(BF58:BF66)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BG67" s="6" t="e">
+        <v>8.7777777777777786</v>
+      </c>
+      <c r="BG67" s="6">
         <f>AVERAGE(BG58:BG66)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BH67" s="9" t="e">
+        <v>22.167777777777772</v>
+      </c>
+      <c r="BH67" s="9">
         <f t="shared" ref="BH67:BK67" si="140">AVERAGE(BH58:BH66)</f>
-        <v>#DIV/0!</v>
+        <v>22.164444444444449</v>
       </c>
       <c r="BI67" s="6">
         <f t="shared" si="140"/>
-        <v>0</v>
+        <v>53.110000000000007</v>
       </c>
       <c r="BJ67" s="6">
         <f t="shared" si="140"/>
-        <v>362.54</v>
+        <v>1000.76</v>
       </c>
       <c r="BK67" s="6">
         <f t="shared" si="140"/>
-        <v>378.92</v>
+        <v>1024.04</v>
       </c>
     </row>
     <row r="68" spans="1:63" x14ac:dyDescent="0.25">
@@ -11077,19 +11341,19 @@
       </c>
       <c r="AH68" s="7">
         <f>MIN(AH58:AH66)</f>
-        <v>0</v>
+        <v>8.16</v>
       </c>
       <c r="AI68" s="7">
         <f>MIN(AI58:AI66)</f>
-        <v>0</v>
+        <v>16.559999999999999</v>
       </c>
       <c r="AJ68" s="7">
         <f t="shared" ref="AJ68:AM68" si="141">MIN(AJ58:AJ66)</f>
-        <v>0</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="AK68" s="7">
         <f t="shared" si="141"/>
-        <v>0</v>
+        <v>45.209999999999994</v>
       </c>
       <c r="AL68" s="7">
         <f t="shared" si="141"/>
@@ -11104,81 +11368,81 @@
       </c>
       <c r="AP68" s="7">
         <f>MIN(AP58:AP66)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AQ68" s="7">
         <f>MIN(AQ58:AQ66)</f>
-        <v>0</v>
+        <v>17.02</v>
       </c>
       <c r="AR68" s="7">
         <f t="shared" ref="AR68:AU68" si="142">MIN(AR58:AR66)</f>
-        <v>0</v>
+        <v>16.02</v>
       </c>
       <c r="AS68" s="7">
         <f t="shared" si="142"/>
-        <v>0</v>
+        <v>47.79</v>
       </c>
       <c r="AT68" s="7">
         <f t="shared" si="142"/>
-        <v>362.54</v>
+        <v>393.26</v>
       </c>
       <c r="AU68" s="7">
         <f t="shared" si="142"/>
-        <v>378.92</v>
+        <v>409.64</v>
       </c>
       <c r="AW68" s="7" t="s">
         <v>6</v>
       </c>
       <c r="AX68" s="7">
         <f>MIN(AX58:AX66)</f>
-        <v>0</v>
+        <v>6.64</v>
       </c>
       <c r="AY68" s="7">
         <f>MIN(AY58:AY66)</f>
-        <v>0</v>
+        <v>16.23</v>
       </c>
       <c r="AZ68" s="7">
         <f t="shared" ref="AZ68:BC68" si="143">MIN(AZ58:AZ66)</f>
-        <v>0</v>
+        <v>15.07</v>
       </c>
       <c r="BA68" s="7">
         <f t="shared" si="143"/>
-        <v>0</v>
+        <v>47.620000000000005</v>
       </c>
       <c r="BB68" s="7">
         <f t="shared" si="143"/>
-        <v>362.54</v>
+        <v>495.66</v>
       </c>
       <c r="BC68" s="7">
         <f t="shared" si="143"/>
-        <v>378.92</v>
+        <v>512.04</v>
       </c>
       <c r="BE68" s="7" t="s">
         <v>6</v>
       </c>
       <c r="BF68" s="7">
         <f>MIN(BF58:BF66)</f>
-        <v>0</v>
+        <v>7.65</v>
       </c>
       <c r="BG68" s="7">
         <f>MIN(BG58:BG66)</f>
-        <v>0</v>
+        <v>18.260000000000002</v>
       </c>
       <c r="BH68" s="7">
         <f t="shared" ref="BH68:BK68" si="144">MIN(BH58:BH66)</f>
-        <v>0</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="BI68" s="7">
         <f t="shared" si="144"/>
-        <v>0</v>
+        <v>51.239999999999995</v>
       </c>
       <c r="BJ68" s="7">
         <f t="shared" si="144"/>
-        <v>362.54</v>
+        <v>1000.76</v>
       </c>
       <c r="BK68" s="7">
         <f t="shared" si="144"/>
-        <v>378.92</v>
+        <v>1024.04</v>
       </c>
     </row>
     <row r="69" spans="1:63" x14ac:dyDescent="0.25">
@@ -11271,19 +11535,19 @@
       </c>
       <c r="AH69" s="7">
         <f>MAX(AH58:AH66)</f>
-        <v>0</v>
+        <v>11.43</v>
       </c>
       <c r="AI69" s="7">
         <f>MAX(AI58:AI66)</f>
-        <v>0</v>
+        <v>25.3</v>
       </c>
       <c r="AJ69" s="7">
         <f t="shared" ref="AJ69:AM69" si="145">MAX(AJ58:AJ66)</f>
-        <v>0</v>
+        <v>22.24</v>
       </c>
       <c r="AK69" s="7">
         <f t="shared" si="145"/>
-        <v>0</v>
+        <v>55.74</v>
       </c>
       <c r="AL69" s="7">
         <f t="shared" si="145"/>
@@ -11298,81 +11562,81 @@
       </c>
       <c r="AP69" s="7">
         <f>MAX(AP58:AP66)</f>
-        <v>0</v>
+        <v>10.59</v>
       </c>
       <c r="AQ69" s="7">
         <f>MAX(AQ58:AQ66)</f>
-        <v>0</v>
+        <v>25.56</v>
       </c>
       <c r="AR69" s="7">
         <f t="shared" ref="AR69:AU69" si="146">MAX(AR58:AR66)</f>
-        <v>0</v>
+        <v>23.46</v>
       </c>
       <c r="AS69" s="7">
         <f t="shared" si="146"/>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AT69" s="7">
         <f t="shared" si="146"/>
-        <v>362.54</v>
+        <v>393.26</v>
       </c>
       <c r="AU69" s="7">
         <f t="shared" si="146"/>
-        <v>378.92</v>
+        <v>409.64</v>
       </c>
       <c r="AW69" s="7" t="s">
         <v>7</v>
       </c>
       <c r="AX69" s="7">
         <f>MAX(AX58:AX66)</f>
-        <v>0</v>
+        <v>9.65</v>
       </c>
       <c r="AY69" s="7">
         <f>MAX(AY58:AY66)</f>
-        <v>0</v>
+        <v>24.35</v>
       </c>
       <c r="AZ69" s="7">
         <f t="shared" ref="AZ69:BC69" si="147">MAX(AZ58:AZ66)</f>
-        <v>0</v>
+        <v>28.68</v>
       </c>
       <c r="BA69" s="7">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>54.59</v>
       </c>
       <c r="BB69" s="7">
         <f t="shared" si="147"/>
-        <v>362.54</v>
+        <v>495.66</v>
       </c>
       <c r="BC69" s="7">
         <f t="shared" si="147"/>
-        <v>378.92</v>
+        <v>512.04</v>
       </c>
       <c r="BE69" s="7" t="s">
         <v>7</v>
       </c>
       <c r="BF69" s="7">
         <f>MAX(BF58:BF66)</f>
-        <v>0</v>
+        <v>10.34</v>
       </c>
       <c r="BG69" s="7">
         <f>MAX(BG58:BG66)</f>
-        <v>0</v>
+        <v>24.57</v>
       </c>
       <c r="BH69" s="7">
         <f t="shared" ref="BH69:BK69" si="148">MAX(BH58:BH66)</f>
-        <v>0</v>
+        <v>26.36</v>
       </c>
       <c r="BI69" s="7">
         <f t="shared" si="148"/>
-        <v>0</v>
+        <v>57.42</v>
       </c>
       <c r="BJ69" s="7">
         <f t="shared" si="148"/>
-        <v>362.54</v>
+        <v>1000.76</v>
       </c>
       <c r="BK69" s="7">
         <f t="shared" si="148"/>
-        <v>378.92</v>
+        <v>1024.04</v>
       </c>
     </row>
     <row r="70" spans="1:63" x14ac:dyDescent="0.25">
@@ -11463,21 +11727,21 @@
       <c r="AG70" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AH70" s="7" t="e">
+      <c r="AH70" s="7">
         <f>_xlfn.STDEV.S(AH58:AH66)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI70" s="7" t="e">
+        <v>1.130266684361602</v>
+      </c>
+      <c r="AI70" s="7">
         <f>_xlfn.STDEV.S(AI58:AI66)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ70" s="7" t="e">
+        <v>3.6463764357387793</v>
+      </c>
+      <c r="AJ70" s="7">
         <f t="shared" ref="AJ70:AM70" si="149">_xlfn.STDEV.S(AJ58:AJ66)</f>
-        <v>#DIV/0!</v>
+        <v>1.682169564712322</v>
       </c>
       <c r="AK70" s="7">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>3.9492650511765408</v>
       </c>
       <c r="AL70" s="7">
         <f t="shared" si="149"/>
@@ -11490,21 +11754,21 @@
       <c r="AO70" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AP70" s="7" t="e">
+      <c r="AP70" s="7">
         <f>_xlfn.STDEV.S(AP58:AP66)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ70" s="7" t="e">
+        <v>1.1410497116446845</v>
+      </c>
+      <c r="AQ70" s="7">
         <f>_xlfn.STDEV.S(AQ58:AQ66)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR70" s="7" t="e">
+        <v>2.5813131886266842</v>
+      </c>
+      <c r="AR70" s="7">
         <f t="shared" ref="AR70:AU70" si="150">_xlfn.STDEV.S(AR58:AR66)</f>
-        <v>#DIV/0!</v>
+        <v>2.3748497028466677</v>
       </c>
       <c r="AS70" s="7">
         <f t="shared" si="150"/>
-        <v>0</v>
+        <v>2.5951964173149675</v>
       </c>
       <c r="AT70" s="7">
         <f t="shared" si="150"/>
@@ -11512,30 +11776,30 @@
       </c>
       <c r="AU70" s="7">
         <f t="shared" si="150"/>
-        <v>0</v>
+        <v>6.0291550413456957E-14</v>
       </c>
       <c r="AW70" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AX70" s="7" t="e">
+      <c r="AX70" s="7">
         <f>_xlfn.STDEV.S(AX58:AX66)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AY70" s="7" t="e">
+        <v>1.041538658801382</v>
+      </c>
+      <c r="AY70" s="7">
         <f>_xlfn.STDEV.S(AY58:AY66)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AZ70" s="7" t="e">
+        <v>3.5400070621398343</v>
+      </c>
+      <c r="AZ70" s="7">
         <f t="shared" ref="AZ70:BC70" si="151">_xlfn.STDEV.S(AZ58:AZ66)</f>
-        <v>#DIV/0!</v>
+        <v>4.3848197733138869</v>
       </c>
       <c r="BA70" s="7">
         <f t="shared" si="151"/>
-        <v>0</v>
+        <v>2.6937798722241575</v>
       </c>
       <c r="BB70" s="7">
         <f t="shared" si="151"/>
-        <v>0</v>
+        <v>6.0291550413456957E-14</v>
       </c>
       <c r="BC70" s="7">
         <f t="shared" si="151"/>
@@ -11544,21 +11808,21 @@
       <c r="BE70" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="BF70" s="7" t="e">
+      <c r="BF70" s="7">
         <f>_xlfn.STDEV.S(BF58:BF66)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BG70" s="7" t="e">
+        <v>0.979078364812768</v>
+      </c>
+      <c r="BG70" s="7">
         <f>_xlfn.STDEV.S(BG58:BG66)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BH70" s="7" t="e">
+        <v>2.5603797461401405</v>
+      </c>
+      <c r="BH70" s="7">
         <f t="shared" ref="BH70:BK70" si="152">_xlfn.STDEV.S(BH58:BH66)</f>
-        <v>#DIV/0!</v>
+        <v>3.0086047892299788</v>
       </c>
       <c r="BI70" s="7">
         <f t="shared" si="152"/>
-        <v>0</v>
+        <v>1.8841178307101725</v>
       </c>
       <c r="BJ70" s="7">
         <f t="shared" si="152"/>
@@ -11566,6 +11830,5614 @@
       </c>
       <c r="BK70" s="7">
         <f t="shared" si="152"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I73" t="s">
+        <v>25</v>
+      </c>
+      <c r="J73" t="s">
+        <v>26</v>
+      </c>
+      <c r="K73" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>25</v>
+      </c>
+      <c r="R73" t="s">
+        <v>26</v>
+      </c>
+      <c r="S73" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA73" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI73" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO73" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP73" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ73" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AW73" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX73" t="s">
+        <v>26</v>
+      </c>
+      <c r="AY73" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="BE73" t="s">
+        <v>25</v>
+      </c>
+      <c r="BF73" t="s">
+        <v>26</v>
+      </c>
+      <c r="BG73" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:63" ht="60" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W74" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE74" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM74" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU74" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AW74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AZ74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="BC74" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="BE74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BH74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BJ74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="BK74" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>1</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I75" s="2">
+        <v>1</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>1</v>
+      </c>
+      <c r="R75" s="2">
+        <v>73.05</v>
+      </c>
+      <c r="S75" s="2">
+        <v>33.53</v>
+      </c>
+      <c r="T75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U75" s="3">
+        <f t="shared" ref="U75:U84" si="153">R75+S75</f>
+        <v>106.58</v>
+      </c>
+      <c r="V75" s="11">
+        <v>178.22</v>
+      </c>
+      <c r="W75" s="11">
+        <v>194.56</v>
+      </c>
+      <c r="Y75" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z75" s="2">
+        <v>49.22</v>
+      </c>
+      <c r="AA75" s="2">
+        <v>32.24</v>
+      </c>
+      <c r="AB75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC75" s="3">
+        <f t="shared" ref="AC75:AC84" si="154">Z75+AA75</f>
+        <v>81.460000000000008</v>
+      </c>
+      <c r="AD75" s="11">
+        <v>290.86</v>
+      </c>
+      <c r="AE75" s="11">
+        <v>307.24</v>
+      </c>
+      <c r="AG75" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH75" s="2">
+        <v>6.66</v>
+      </c>
+      <c r="AI75" s="2">
+        <v>6.21</v>
+      </c>
+      <c r="AJ75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK75" s="3">
+        <f t="shared" ref="AK75:AK84" si="155">AH75+AI75</f>
+        <v>12.870000000000001</v>
+      </c>
+      <c r="AL75" s="11">
+        <v>362.54</v>
+      </c>
+      <c r="AM75" s="11">
+        <v>378.92</v>
+      </c>
+      <c r="AO75" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP75" s="2">
+        <v>66.680000000000007</v>
+      </c>
+      <c r="AQ75" s="2">
+        <v>10.83</v>
+      </c>
+      <c r="AR75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS75" s="3">
+        <f t="shared" ref="AS75:AS84" si="156">AP75+AQ75</f>
+        <v>77.510000000000005</v>
+      </c>
+      <c r="AT75" s="11">
+        <v>393.26</v>
+      </c>
+      <c r="AU75" s="11">
+        <v>409.64</v>
+      </c>
+      <c r="AW75" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX75" s="2">
+        <v>63.27</v>
+      </c>
+      <c r="AY75" s="2">
+        <v>10.86</v>
+      </c>
+      <c r="AZ75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA75" s="3">
+        <f>AX75+AY75</f>
+        <v>74.13</v>
+      </c>
+      <c r="BB75" s="11">
+        <v>495.66</v>
+      </c>
+      <c r="BC75" s="11">
+        <v>512.04</v>
+      </c>
+      <c r="BE75" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF75" s="2">
+        <v>59.59</v>
+      </c>
+      <c r="BG75" s="2">
+        <v>12.75</v>
+      </c>
+      <c r="BH75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI75" s="3">
+        <f>BF75+BG75</f>
+        <v>72.34</v>
+      </c>
+      <c r="BJ75" s="11">
+        <v>1000.76</v>
+      </c>
+      <c r="BK75" s="11">
+        <v>1024.04</v>
+      </c>
+    </row>
+    <row r="76" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>2</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76" s="4">
+        <v>2</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q76" s="4">
+        <v>2</v>
+      </c>
+      <c r="R76" s="4">
+        <v>10.43</v>
+      </c>
+      <c r="S76" s="4">
+        <v>39.19</v>
+      </c>
+      <c r="T76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U76" s="11">
+        <f t="shared" si="153"/>
+        <v>49.62</v>
+      </c>
+      <c r="V76" s="11">
+        <v>178.22</v>
+      </c>
+      <c r="W76" s="11">
+        <v>194.51</v>
+      </c>
+      <c r="Y76" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z76" s="4">
+        <v>15.55</v>
+      </c>
+      <c r="AA76" s="4">
+        <v>13.94</v>
+      </c>
+      <c r="AB76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC76" s="11">
+        <f t="shared" si="154"/>
+        <v>29.490000000000002</v>
+      </c>
+      <c r="AD76" s="11">
+        <v>290.86</v>
+      </c>
+      <c r="AE76" s="11">
+        <v>307.24</v>
+      </c>
+      <c r="AG76" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH76" s="4">
+        <v>19.32</v>
+      </c>
+      <c r="AI76" s="4">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="AJ76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK76" s="11">
+        <f t="shared" si="155"/>
+        <v>29.1</v>
+      </c>
+      <c r="AL76" s="11">
+        <v>362.54</v>
+      </c>
+      <c r="AM76" s="11">
+        <v>378.92</v>
+      </c>
+      <c r="AO76" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP76" s="4">
+        <v>10.7</v>
+      </c>
+      <c r="AQ76" s="4">
+        <v>11.89</v>
+      </c>
+      <c r="AR76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS76" s="11">
+        <f t="shared" si="156"/>
+        <v>22.59</v>
+      </c>
+      <c r="AT76" s="11">
+        <v>393.26</v>
+      </c>
+      <c r="AU76" s="11">
+        <v>409.64</v>
+      </c>
+      <c r="AW76" s="4">
+        <v>2</v>
+      </c>
+      <c r="AX76" s="4">
+        <v>16.04</v>
+      </c>
+      <c r="AY76" s="4">
+        <v>9.31</v>
+      </c>
+      <c r="AZ76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA76" s="11">
+        <f>AX76+AY76</f>
+        <v>25.35</v>
+      </c>
+      <c r="BB76" s="11">
+        <v>495.66</v>
+      </c>
+      <c r="BC76" s="11">
+        <v>512.04</v>
+      </c>
+      <c r="BE76" s="4">
+        <v>2</v>
+      </c>
+      <c r="BF76" s="4">
+        <v>12.07</v>
+      </c>
+      <c r="BG76" s="4">
+        <v>10.67</v>
+      </c>
+      <c r="BH76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI76" s="11">
+        <f>BF76+BG76</f>
+        <v>22.740000000000002</v>
+      </c>
+      <c r="BJ76" s="11">
+        <v>1000.76</v>
+      </c>
+      <c r="BK76" s="11">
+        <v>1024.04</v>
+      </c>
+    </row>
+    <row r="77" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>3</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77" s="4">
+        <v>3</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q77" s="4">
+        <v>3</v>
+      </c>
+      <c r="R77" s="4">
+        <v>13.49</v>
+      </c>
+      <c r="S77" s="4">
+        <v>42.9</v>
+      </c>
+      <c r="T77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U77" s="11">
+        <f t="shared" si="153"/>
+        <v>56.39</v>
+      </c>
+      <c r="V77" s="11">
+        <v>178.22</v>
+      </c>
+      <c r="W77" s="11">
+        <v>194.43</v>
+      </c>
+      <c r="Y77" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z77" s="4">
+        <v>10.77</v>
+      </c>
+      <c r="AA77" s="4">
+        <v>14.26</v>
+      </c>
+      <c r="AB77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC77" s="11">
+        <f t="shared" si="154"/>
+        <v>25.03</v>
+      </c>
+      <c r="AD77" s="11">
+        <v>290.86</v>
+      </c>
+      <c r="AE77" s="11">
+        <v>307.24</v>
+      </c>
+      <c r="AG77" s="4">
+        <v>3</v>
+      </c>
+      <c r="AH77" s="4">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="AI77" s="4">
+        <v>10.95</v>
+      </c>
+      <c r="AJ77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK77" s="11">
+        <f t="shared" si="155"/>
+        <v>30.05</v>
+      </c>
+      <c r="AL77" s="11">
+        <v>362.54</v>
+      </c>
+      <c r="AM77" s="11">
+        <v>378.92</v>
+      </c>
+      <c r="AO77" s="4">
+        <v>3</v>
+      </c>
+      <c r="AP77" s="4">
+        <v>10.98</v>
+      </c>
+      <c r="AQ77" s="4">
+        <v>11.48</v>
+      </c>
+      <c r="AR77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS77" s="11">
+        <f t="shared" si="156"/>
+        <v>22.46</v>
+      </c>
+      <c r="AT77" s="11">
+        <v>393.26</v>
+      </c>
+      <c r="AU77" s="11">
+        <v>409.64</v>
+      </c>
+      <c r="AW77" s="4">
+        <v>3</v>
+      </c>
+      <c r="AX77" s="4">
+        <v>13.79</v>
+      </c>
+      <c r="AY77" s="4">
+        <v>12.55</v>
+      </c>
+      <c r="AZ77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA77" s="11">
+        <f t="shared" ref="BA77:BA84" si="157">AX77+AY77</f>
+        <v>26.34</v>
+      </c>
+      <c r="BB77" s="11">
+        <v>495.66</v>
+      </c>
+      <c r="BC77" s="11">
+        <v>512.04</v>
+      </c>
+      <c r="BE77" s="4">
+        <v>3</v>
+      </c>
+      <c r="BF77" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="BG77" s="4">
+        <v>8.16</v>
+      </c>
+      <c r="BH77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI77" s="11">
+        <f t="shared" ref="BI77:BI84" si="158">BF77+BG77</f>
+        <v>18.46</v>
+      </c>
+      <c r="BJ77" s="11">
+        <v>1000.76</v>
+      </c>
+      <c r="BK77" s="11">
+        <v>1024.04</v>
+      </c>
+    </row>
+    <row r="78" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>4</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I78" s="4">
+        <v>4</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q78" s="4">
+        <v>4</v>
+      </c>
+      <c r="R78" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="S78" s="12">
+        <v>32.130000000000003</v>
+      </c>
+      <c r="T78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U78" s="11">
+        <f t="shared" si="153"/>
+        <v>42.63</v>
+      </c>
+      <c r="V78" s="11">
+        <v>178.22</v>
+      </c>
+      <c r="W78" s="11">
+        <v>195.58</v>
+      </c>
+      <c r="Y78" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z78" s="4">
+        <v>17.68</v>
+      </c>
+      <c r="AA78" s="12">
+        <v>14.32</v>
+      </c>
+      <c r="AB78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC78" s="11">
+        <f t="shared" si="154"/>
+        <v>32</v>
+      </c>
+      <c r="AD78" s="11">
+        <v>290.86</v>
+      </c>
+      <c r="AE78" s="11">
+        <v>307.24</v>
+      </c>
+      <c r="AG78" s="4">
+        <v>4</v>
+      </c>
+      <c r="AH78" s="4">
+        <v>19.649999999999999</v>
+      </c>
+      <c r="AI78" s="12">
+        <v>16.420000000000002</v>
+      </c>
+      <c r="AJ78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK78" s="11">
+        <f t="shared" si="155"/>
+        <v>36.07</v>
+      </c>
+      <c r="AL78" s="11">
+        <v>362.54</v>
+      </c>
+      <c r="AM78" s="11">
+        <v>378.92</v>
+      </c>
+      <c r="AO78" s="4">
+        <v>4</v>
+      </c>
+      <c r="AP78" s="4">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="AQ78" s="4">
+        <v>7.76</v>
+      </c>
+      <c r="AR78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS78" s="11">
+        <f t="shared" si="156"/>
+        <v>15.98</v>
+      </c>
+      <c r="AT78" s="11">
+        <v>393.26</v>
+      </c>
+      <c r="AU78" s="11">
+        <v>409.64</v>
+      </c>
+      <c r="AW78" s="4">
+        <v>4</v>
+      </c>
+      <c r="AX78" s="4">
+        <v>11.38</v>
+      </c>
+      <c r="AY78" s="4">
+        <v>9.42</v>
+      </c>
+      <c r="AZ78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA78" s="11">
+        <f t="shared" si="157"/>
+        <v>20.8</v>
+      </c>
+      <c r="BB78" s="11">
+        <v>495.66</v>
+      </c>
+      <c r="BC78" s="11">
+        <v>512.04</v>
+      </c>
+      <c r="BE78" s="4">
+        <v>4</v>
+      </c>
+      <c r="BF78" s="4">
+        <v>11.92</v>
+      </c>
+      <c r="BG78" s="4">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="BH78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI78" s="11">
+        <f t="shared" si="158"/>
+        <v>21.39</v>
+      </c>
+      <c r="BJ78" s="11">
+        <v>1000.76</v>
+      </c>
+      <c r="BK78" s="11">
+        <v>1024.04</v>
+      </c>
+    </row>
+    <row r="79" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>5</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" s="4">
+        <v>5</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q79" s="4">
+        <v>5</v>
+      </c>
+      <c r="R79" s="4">
+        <v>10.02</v>
+      </c>
+      <c r="S79" s="4">
+        <v>38.979999999999997</v>
+      </c>
+      <c r="T79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U79" s="11">
+        <f t="shared" si="153"/>
+        <v>49</v>
+      </c>
+      <c r="V79" s="11">
+        <v>178.22</v>
+      </c>
+      <c r="W79" s="11">
+        <v>195.6</v>
+      </c>
+      <c r="Y79" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z79" s="4">
+        <v>17.23</v>
+      </c>
+      <c r="AA79" s="4">
+        <v>17.61</v>
+      </c>
+      <c r="AB79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC79" s="11">
+        <f t="shared" si="154"/>
+        <v>34.840000000000003</v>
+      </c>
+      <c r="AD79" s="11">
+        <v>290.86</v>
+      </c>
+      <c r="AE79" s="11">
+        <v>307.24</v>
+      </c>
+      <c r="AG79" s="4">
+        <v>5</v>
+      </c>
+      <c r="AH79" s="4">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="AI79" s="4">
+        <v>14.8</v>
+      </c>
+      <c r="AJ79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK79" s="11">
+        <f t="shared" si="155"/>
+        <v>24.83</v>
+      </c>
+      <c r="AL79" s="11">
+        <v>362.54</v>
+      </c>
+      <c r="AM79" s="11">
+        <v>378.92</v>
+      </c>
+      <c r="AO79" s="4">
+        <v>5</v>
+      </c>
+      <c r="AP79" s="4">
+        <v>9.07</v>
+      </c>
+      <c r="AQ79" s="4">
+        <v>6.64</v>
+      </c>
+      <c r="AR79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS79" s="11">
+        <f t="shared" si="156"/>
+        <v>15.71</v>
+      </c>
+      <c r="AT79" s="11">
+        <v>393.26</v>
+      </c>
+      <c r="AU79" s="11">
+        <v>409.64</v>
+      </c>
+      <c r="AW79" s="4">
+        <v>5</v>
+      </c>
+      <c r="AX79" s="4">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="AY79" s="4">
+        <v>7.14</v>
+      </c>
+      <c r="AZ79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA79" s="11">
+        <f t="shared" si="157"/>
+        <v>15.259999999999998</v>
+      </c>
+      <c r="BB79" s="11">
+        <v>495.66</v>
+      </c>
+      <c r="BC79" s="11">
+        <v>512.04</v>
+      </c>
+      <c r="BE79" s="4">
+        <v>5</v>
+      </c>
+      <c r="BF79" s="4">
+        <v>18.75</v>
+      </c>
+      <c r="BG79" s="4">
+        <v>17.579999999999998</v>
+      </c>
+      <c r="BH79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI79" s="11">
+        <f t="shared" si="158"/>
+        <v>36.33</v>
+      </c>
+      <c r="BJ79" s="11">
+        <v>1000.76</v>
+      </c>
+      <c r="BK79" s="11">
+        <v>1024.04</v>
+      </c>
+    </row>
+    <row r="80" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>6</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" s="4">
+        <v>6</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q80" s="4">
+        <v>6</v>
+      </c>
+      <c r="R80" s="4">
+        <v>13.65</v>
+      </c>
+      <c r="S80" s="4">
+        <v>34.07</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U80" s="11">
+        <f t="shared" si="153"/>
+        <v>47.72</v>
+      </c>
+      <c r="V80" s="11">
+        <v>178.22</v>
+      </c>
+      <c r="W80" s="11">
+        <v>194.55</v>
+      </c>
+      <c r="Y80" s="4">
+        <v>6</v>
+      </c>
+      <c r="Z80" s="4">
+        <v>7.95</v>
+      </c>
+      <c r="AA80" s="4">
+        <v>10.97</v>
+      </c>
+      <c r="AB80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC80" s="11">
+        <f t="shared" si="154"/>
+        <v>18.920000000000002</v>
+      </c>
+      <c r="AD80" s="11">
+        <v>290.86</v>
+      </c>
+      <c r="AE80" s="11">
+        <v>307.24</v>
+      </c>
+      <c r="AG80" s="4">
+        <v>6</v>
+      </c>
+      <c r="AH80" s="4">
+        <v>17.12</v>
+      </c>
+      <c r="AI80" s="4">
+        <v>16.46</v>
+      </c>
+      <c r="AJ80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK80" s="11">
+        <f t="shared" si="155"/>
+        <v>33.58</v>
+      </c>
+      <c r="AL80" s="11">
+        <v>362.54</v>
+      </c>
+      <c r="AM80" s="11">
+        <v>378.92</v>
+      </c>
+      <c r="AO80" s="4">
+        <v>6</v>
+      </c>
+      <c r="AP80" s="4">
+        <v>11.79</v>
+      </c>
+      <c r="AQ80" s="4">
+        <v>12.61</v>
+      </c>
+      <c r="AR80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS80" s="11">
+        <f t="shared" si="156"/>
+        <v>24.4</v>
+      </c>
+      <c r="AT80" s="11">
+        <v>393.26</v>
+      </c>
+      <c r="AU80" s="11">
+        <v>409.64</v>
+      </c>
+      <c r="AW80" s="4">
+        <v>6</v>
+      </c>
+      <c r="AX80" s="4">
+        <v>10</v>
+      </c>
+      <c r="AY80" s="4">
+        <v>10</v>
+      </c>
+      <c r="AZ80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA80" s="11">
+        <f t="shared" si="157"/>
+        <v>20</v>
+      </c>
+      <c r="BB80" s="11">
+        <v>495.66</v>
+      </c>
+      <c r="BC80" s="11">
+        <v>512.04</v>
+      </c>
+      <c r="BE80" s="4">
+        <v>6</v>
+      </c>
+      <c r="BF80" s="4">
+        <v>8.69</v>
+      </c>
+      <c r="BG80" s="4">
+        <v>9.02</v>
+      </c>
+      <c r="BH80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI80" s="11">
+        <f t="shared" si="158"/>
+        <v>17.71</v>
+      </c>
+      <c r="BJ80" s="11">
+        <v>1000.76</v>
+      </c>
+      <c r="BK80" s="11">
+        <v>1024.04</v>
+      </c>
+    </row>
+    <row r="81" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>7</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I81" s="4">
+        <v>7</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q81" s="4">
+        <v>7</v>
+      </c>
+      <c r="R81" s="4">
+        <v>7.61</v>
+      </c>
+      <c r="S81" s="4">
+        <v>32.909999999999997</v>
+      </c>
+      <c r="T81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U81" s="11">
+        <f t="shared" si="153"/>
+        <v>40.519999999999996</v>
+      </c>
+      <c r="V81" s="11">
+        <v>178.22</v>
+      </c>
+      <c r="W81" s="11">
+        <v>194.57</v>
+      </c>
+      <c r="Y81" s="4">
+        <v>7</v>
+      </c>
+      <c r="Z81" s="4">
+        <v>10.41</v>
+      </c>
+      <c r="AA81" s="4">
+        <v>11.82</v>
+      </c>
+      <c r="AB81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC81" s="11">
+        <f t="shared" si="154"/>
+        <v>22.23</v>
+      </c>
+      <c r="AD81" s="11">
+        <v>290.86</v>
+      </c>
+      <c r="AE81" s="11">
+        <v>307.24</v>
+      </c>
+      <c r="AG81" s="4">
+        <v>7</v>
+      </c>
+      <c r="AH81" s="4">
+        <v>14.23</v>
+      </c>
+      <c r="AI81" s="4">
+        <v>8.35</v>
+      </c>
+      <c r="AJ81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK81" s="11">
+        <f t="shared" si="155"/>
+        <v>22.58</v>
+      </c>
+      <c r="AL81" s="11">
+        <v>362.54</v>
+      </c>
+      <c r="AM81" s="11">
+        <v>378.92</v>
+      </c>
+      <c r="AO81" s="4">
+        <v>7</v>
+      </c>
+      <c r="AP81" s="4">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="AQ81" s="4">
+        <v>11.92</v>
+      </c>
+      <c r="AR81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS81" s="11">
+        <f t="shared" si="156"/>
+        <v>28.159999999999997</v>
+      </c>
+      <c r="AT81" s="11">
+        <v>393.26</v>
+      </c>
+      <c r="AU81" s="11">
+        <v>409.64</v>
+      </c>
+      <c r="AW81" s="4">
+        <v>7</v>
+      </c>
+      <c r="AX81" s="4">
+        <v>10.73</v>
+      </c>
+      <c r="AY81" s="4">
+        <v>9.48</v>
+      </c>
+      <c r="AZ81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA81" s="11">
+        <f t="shared" si="157"/>
+        <v>20.21</v>
+      </c>
+      <c r="BB81" s="11">
+        <v>495.66</v>
+      </c>
+      <c r="BC81" s="11">
+        <v>512.04</v>
+      </c>
+      <c r="BE81" s="4">
+        <v>7</v>
+      </c>
+      <c r="BF81" s="4">
+        <v>12.08</v>
+      </c>
+      <c r="BG81" s="4">
+        <v>10.82</v>
+      </c>
+      <c r="BH81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI81" s="11">
+        <f t="shared" si="158"/>
+        <v>22.9</v>
+      </c>
+      <c r="BJ81" s="11">
+        <v>1000.76</v>
+      </c>
+      <c r="BK81" s="11">
+        <v>1024.04</v>
+      </c>
+    </row>
+    <row r="82" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>8</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I82" s="4">
+        <v>8</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q82" s="4">
+        <v>8</v>
+      </c>
+      <c r="R82" s="4">
+        <v>14.58</v>
+      </c>
+      <c r="S82" s="4">
+        <v>42.26</v>
+      </c>
+      <c r="T82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U82" s="11">
+        <f t="shared" si="153"/>
+        <v>56.839999999999996</v>
+      </c>
+      <c r="V82" s="11">
+        <v>178.22</v>
+      </c>
+      <c r="W82" s="11">
+        <v>194.56</v>
+      </c>
+      <c r="Y82" s="4">
+        <v>8</v>
+      </c>
+      <c r="Z82" s="4">
+        <v>14.79</v>
+      </c>
+      <c r="AA82" s="4">
+        <v>14.52</v>
+      </c>
+      <c r="AB82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC82" s="11">
+        <f t="shared" si="154"/>
+        <v>29.31</v>
+      </c>
+      <c r="AD82" s="11">
+        <v>290.86</v>
+      </c>
+      <c r="AE82" s="11">
+        <v>307.24</v>
+      </c>
+      <c r="AG82" s="4">
+        <v>8</v>
+      </c>
+      <c r="AH82" s="4">
+        <v>11.94</v>
+      </c>
+      <c r="AI82" s="4">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="AJ82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK82" s="11">
+        <f t="shared" si="155"/>
+        <v>21.06</v>
+      </c>
+      <c r="AL82" s="11">
+        <v>362.54</v>
+      </c>
+      <c r="AM82" s="11">
+        <v>378.92</v>
+      </c>
+      <c r="AO82" s="4">
+        <v>8</v>
+      </c>
+      <c r="AP82" s="4">
+        <v>13.44</v>
+      </c>
+      <c r="AQ82" s="4">
+        <v>10.33</v>
+      </c>
+      <c r="AR82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS82" s="11">
+        <f t="shared" si="156"/>
+        <v>23.77</v>
+      </c>
+      <c r="AT82" s="11">
+        <v>393.26</v>
+      </c>
+      <c r="AU82" s="11">
+        <v>409.64</v>
+      </c>
+      <c r="AW82" s="4">
+        <v>8</v>
+      </c>
+      <c r="AX82" s="4">
+        <v>6.89</v>
+      </c>
+      <c r="AY82" s="4">
+        <v>7.55</v>
+      </c>
+      <c r="AZ82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA82" s="11">
+        <f t="shared" si="157"/>
+        <v>14.44</v>
+      </c>
+      <c r="BB82" s="11">
+        <v>495.66</v>
+      </c>
+      <c r="BC82" s="11">
+        <v>512.04</v>
+      </c>
+      <c r="BE82" s="4">
+        <v>8</v>
+      </c>
+      <c r="BF82" s="4">
+        <v>19.38</v>
+      </c>
+      <c r="BG82" s="4">
+        <v>11.19</v>
+      </c>
+      <c r="BH82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI82" s="11">
+        <f t="shared" si="158"/>
+        <v>30.57</v>
+      </c>
+      <c r="BJ82" s="11">
+        <v>1000.76</v>
+      </c>
+      <c r="BK82" s="11">
+        <v>1024.04</v>
+      </c>
+    </row>
+    <row r="83" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>9</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" s="4">
+        <v>9</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q83" s="4">
+        <v>9</v>
+      </c>
+      <c r="R83" s="4">
+        <v>12.79</v>
+      </c>
+      <c r="S83" s="4">
+        <v>47.2</v>
+      </c>
+      <c r="T83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U83" s="11">
+        <f t="shared" si="153"/>
+        <v>59.99</v>
+      </c>
+      <c r="V83" s="11">
+        <v>178.22</v>
+      </c>
+      <c r="W83" s="11">
+        <v>194.56</v>
+      </c>
+      <c r="Y83" s="4">
+        <v>9</v>
+      </c>
+      <c r="Z83" s="4">
+        <v>10.76</v>
+      </c>
+      <c r="AA83" s="4">
+        <v>11.94</v>
+      </c>
+      <c r="AB83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC83" s="11">
+        <f t="shared" si="154"/>
+        <v>22.7</v>
+      </c>
+      <c r="AD83" s="11">
+        <v>290.86</v>
+      </c>
+      <c r="AE83" s="11">
+        <v>307.24</v>
+      </c>
+      <c r="AG83" s="4">
+        <v>9</v>
+      </c>
+      <c r="AH83" s="4">
+        <v>10.67</v>
+      </c>
+      <c r="AI83" s="4">
+        <v>12.62</v>
+      </c>
+      <c r="AJ83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK83" s="11">
+        <f t="shared" si="155"/>
+        <v>23.29</v>
+      </c>
+      <c r="AL83" s="11">
+        <v>362.54</v>
+      </c>
+      <c r="AM83" s="11">
+        <v>378.92</v>
+      </c>
+      <c r="AO83" s="4">
+        <v>9</v>
+      </c>
+      <c r="AP83" s="4">
+        <v>14.22</v>
+      </c>
+      <c r="AQ83" s="4">
+        <v>14.21</v>
+      </c>
+      <c r="AR83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS83" s="11">
+        <f t="shared" si="156"/>
+        <v>28.43</v>
+      </c>
+      <c r="AT83" s="11">
+        <v>393.26</v>
+      </c>
+      <c r="AU83" s="11">
+        <v>409.64</v>
+      </c>
+      <c r="AW83" s="4">
+        <v>9</v>
+      </c>
+      <c r="AX83" s="4">
+        <v>10.73</v>
+      </c>
+      <c r="AY83" s="4">
+        <v>12.52</v>
+      </c>
+      <c r="AZ83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA83" s="11">
+        <f t="shared" si="157"/>
+        <v>23.25</v>
+      </c>
+      <c r="BB83" s="11">
+        <v>495.66</v>
+      </c>
+      <c r="BC83" s="11">
+        <v>512.04</v>
+      </c>
+      <c r="BE83" s="4">
+        <v>9</v>
+      </c>
+      <c r="BF83" s="4">
+        <v>12.58</v>
+      </c>
+      <c r="BG83" s="4">
+        <v>13.1</v>
+      </c>
+      <c r="BH83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI83" s="11">
+        <f t="shared" si="158"/>
+        <v>25.68</v>
+      </c>
+      <c r="BJ83" s="11">
+        <v>1000.76</v>
+      </c>
+      <c r="BK83" s="11">
+        <v>1024.04</v>
+      </c>
+    </row>
+    <row r="84" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>10</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I84" s="4">
+        <v>10</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q84" s="4">
+        <v>10</v>
+      </c>
+      <c r="R84" s="4">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="S84" s="4">
+        <v>41.73</v>
+      </c>
+      <c r="T84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U84" s="11">
+        <f t="shared" si="153"/>
+        <v>51.349999999999994</v>
+      </c>
+      <c r="V84" s="11">
+        <v>178.22</v>
+      </c>
+      <c r="W84" s="11">
+        <v>194.56</v>
+      </c>
+      <c r="Y84" s="4">
+        <v>10</v>
+      </c>
+      <c r="Z84" s="12">
+        <v>11.17</v>
+      </c>
+      <c r="AA84" s="4">
+        <v>11.94</v>
+      </c>
+      <c r="AB84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC84" s="11">
+        <f t="shared" si="154"/>
+        <v>23.11</v>
+      </c>
+      <c r="AD84" s="11">
+        <v>290.86</v>
+      </c>
+      <c r="AE84" s="11">
+        <v>307.24</v>
+      </c>
+      <c r="AG84" s="4">
+        <v>10</v>
+      </c>
+      <c r="AH84" s="12">
+        <v>18.32</v>
+      </c>
+      <c r="AI84" s="4">
+        <v>14.83</v>
+      </c>
+      <c r="AJ84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK84" s="11">
+        <f t="shared" si="155"/>
+        <v>33.15</v>
+      </c>
+      <c r="AL84" s="11">
+        <v>362.54</v>
+      </c>
+      <c r="AM84" s="11">
+        <v>378.92</v>
+      </c>
+      <c r="AO84" s="4">
+        <v>10</v>
+      </c>
+      <c r="AP84" s="4">
+        <v>9.67</v>
+      </c>
+      <c r="AQ84" s="4">
+        <v>12.83</v>
+      </c>
+      <c r="AR84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS84" s="11">
+        <f t="shared" si="156"/>
+        <v>22.5</v>
+      </c>
+      <c r="AT84" s="11">
+        <v>393.26</v>
+      </c>
+      <c r="AU84" s="11">
+        <v>409.64</v>
+      </c>
+      <c r="AW84" s="4">
+        <v>10</v>
+      </c>
+      <c r="AX84" s="4">
+        <v>10.73</v>
+      </c>
+      <c r="AY84" s="4">
+        <v>10.63</v>
+      </c>
+      <c r="AZ84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA84" s="11">
+        <f t="shared" si="157"/>
+        <v>21.36</v>
+      </c>
+      <c r="BB84" s="11">
+        <v>495.66</v>
+      </c>
+      <c r="BC84" s="11">
+        <v>512.04</v>
+      </c>
+      <c r="BE84" s="4">
+        <v>10</v>
+      </c>
+      <c r="BF84" s="4">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="BG84" s="4">
+        <v>10.25</v>
+      </c>
+      <c r="BH84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI84" s="11">
+        <f t="shared" si="158"/>
+        <v>28.6</v>
+      </c>
+      <c r="BJ84" s="11">
+        <v>1000.76</v>
+      </c>
+      <c r="BK84" s="11">
+        <v>1024.04</v>
+      </c>
+    </row>
+    <row r="85" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q85" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R85" s="6">
+        <f>AVERAGE(R76:R84)</f>
+        <v>11.41</v>
+      </c>
+      <c r="S85" s="6">
+        <f>AVERAGE(S76:S84)</f>
+        <v>39.041111111111114</v>
+      </c>
+      <c r="T85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U85" s="9">
+        <f>AVERAGE(U76:U84)</f>
+        <v>50.451111111111103</v>
+      </c>
+      <c r="V85" s="6">
+        <f t="shared" ref="V85:W85" si="159">AVERAGE(V76:V84)</f>
+        <v>178.22</v>
+      </c>
+      <c r="W85" s="6">
+        <f t="shared" si="159"/>
+        <v>194.76888888888888</v>
+      </c>
+      <c r="Y85" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z85" s="6">
+        <f>AVERAGE(Z76:Z84)</f>
+        <v>12.923333333333334</v>
+      </c>
+      <c r="AA85" s="6">
+        <f>AVERAGE(AA76:AA84)</f>
+        <v>13.479999999999997</v>
+      </c>
+      <c r="AB85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC85" s="9">
+        <f>AVERAGE(AC76:AC84)</f>
+        <v>26.403333333333332</v>
+      </c>
+      <c r="AD85" s="6">
+        <f t="shared" ref="AD85:AE85" si="160">AVERAGE(AD76:AD84)</f>
+        <v>290.86000000000007</v>
+      </c>
+      <c r="AE85" s="6">
+        <f t="shared" si="160"/>
+        <v>307.24</v>
+      </c>
+      <c r="AG85" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH85" s="6">
+        <f>AVERAGE(AH76:AH84)</f>
+        <v>15.597777777777777</v>
+      </c>
+      <c r="AI85" s="6">
+        <f>AVERAGE(AI76:AI84)</f>
+        <v>12.592222222222222</v>
+      </c>
+      <c r="AJ85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK85" s="9">
+        <f>AVERAGE(AK76:AK84)</f>
+        <v>28.189999999999998</v>
+      </c>
+      <c r="AL85" s="6">
+        <f t="shared" ref="AL85:AM85" si="161">AVERAGE(AL76:AL84)</f>
+        <v>362.54</v>
+      </c>
+      <c r="AM85" s="6">
+        <f t="shared" si="161"/>
+        <v>378.92</v>
+      </c>
+      <c r="AO85" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP85" s="6">
+        <f>AVERAGE(AP76:AP84)</f>
+        <v>11.592222222222222</v>
+      </c>
+      <c r="AQ85" s="6">
+        <f>AVERAGE(AQ76:AQ84)</f>
+        <v>11.074444444444445</v>
+      </c>
+      <c r="AR85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS85" s="9">
+        <f>AVERAGE(AS76:AS84)</f>
+        <v>22.666666666666671</v>
+      </c>
+      <c r="AT85" s="6">
+        <f t="shared" ref="AT85:AU85" si="162">AVERAGE(AT76:AT84)</f>
+        <v>393.26</v>
+      </c>
+      <c r="AU85" s="6">
+        <f t="shared" si="162"/>
+        <v>409.63999999999993</v>
+      </c>
+      <c r="AW85" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX85" s="6">
+        <f>AVERAGE(AX76:AX84)</f>
+        <v>10.934444444444445</v>
+      </c>
+      <c r="AY85" s="6">
+        <f>AVERAGE(AY76:AY84)</f>
+        <v>9.8444444444444432</v>
+      </c>
+      <c r="AZ85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA85" s="9">
+        <f>AVERAGE(BA76:BA84)</f>
+        <v>20.778888888888886</v>
+      </c>
+      <c r="BB85" s="6">
+        <f t="shared" ref="BB85:BC85" si="163">AVERAGE(BB76:BB84)</f>
+        <v>495.65999999999997</v>
+      </c>
+      <c r="BC85" s="6">
+        <f t="shared" si="163"/>
+        <v>512.04</v>
+      </c>
+      <c r="BE85" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF85" s="6">
+        <f>AVERAGE(BF76:BF84)</f>
+        <v>13.791111111111112</v>
+      </c>
+      <c r="BG85" s="6">
+        <f>AVERAGE(BG76:BG84)</f>
+        <v>11.139999999999999</v>
+      </c>
+      <c r="BH85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI85" s="9">
+        <f>AVERAGE(BI76:BI84)</f>
+        <v>24.931111111111111</v>
+      </c>
+      <c r="BJ85" s="6">
+        <f t="shared" ref="BJ85:BK85" si="164">AVERAGE(BJ76:BJ84)</f>
+        <v>1000.76</v>
+      </c>
+      <c r="BK85" s="6">
+        <f t="shared" si="164"/>
+        <v>1024.04</v>
+      </c>
+    </row>
+    <row r="86" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q86" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="R86" s="7">
+        <f>MIN(R76:R84)</f>
+        <v>7.61</v>
+      </c>
+      <c r="S86" s="7">
+        <f>MIN(S76:S84)</f>
+        <v>32.130000000000003</v>
+      </c>
+      <c r="T86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U86" s="7">
+        <f>MIN(U76:U84)</f>
+        <v>40.519999999999996</v>
+      </c>
+      <c r="V86" s="7">
+        <f t="shared" ref="V86:W86" si="165">MIN(V76:V84)</f>
+        <v>178.22</v>
+      </c>
+      <c r="W86" s="7">
+        <f t="shared" si="165"/>
+        <v>194.43</v>
+      </c>
+      <c r="Y86" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z86" s="7">
+        <f>MIN(Z76:Z84)</f>
+        <v>7.95</v>
+      </c>
+      <c r="AA86" s="7">
+        <f>MIN(AA76:AA84)</f>
+        <v>10.97</v>
+      </c>
+      <c r="AB86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC86" s="7">
+        <f>MIN(AC76:AC84)</f>
+        <v>18.920000000000002</v>
+      </c>
+      <c r="AD86" s="7">
+        <f t="shared" ref="AD86:AE86" si="166">MIN(AD76:AD84)</f>
+        <v>290.86</v>
+      </c>
+      <c r="AE86" s="7">
+        <f t="shared" si="166"/>
+        <v>307.24</v>
+      </c>
+      <c r="AG86" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH86" s="7">
+        <f>MIN(AH76:AH84)</f>
+        <v>10.029999999999999</v>
+      </c>
+      <c r="AI86" s="7">
+        <f>MIN(AI76:AI84)</f>
+        <v>8.35</v>
+      </c>
+      <c r="AJ86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK86" s="7">
+        <f>MIN(AK76:AK84)</f>
+        <v>21.06</v>
+      </c>
+      <c r="AL86" s="7">
+        <f t="shared" ref="AL86:AM86" si="167">MIN(AL76:AL84)</f>
+        <v>362.54</v>
+      </c>
+      <c r="AM86" s="7">
+        <f t="shared" si="167"/>
+        <v>378.92</v>
+      </c>
+      <c r="AO86" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP86" s="7">
+        <f>MIN(AP76:AP84)</f>
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="AQ86" s="7">
+        <f>MIN(AQ76:AQ84)</f>
+        <v>6.64</v>
+      </c>
+      <c r="AR86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS86" s="7">
+        <f>MIN(AS76:AS84)</f>
+        <v>15.71</v>
+      </c>
+      <c r="AT86" s="7">
+        <f t="shared" ref="AT86:AU86" si="168">MIN(AT76:AT84)</f>
+        <v>393.26</v>
+      </c>
+      <c r="AU86" s="7">
+        <f t="shared" si="168"/>
+        <v>409.64</v>
+      </c>
+      <c r="AW86" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX86" s="7">
+        <f>MIN(AX76:AX84)</f>
+        <v>6.89</v>
+      </c>
+      <c r="AY86" s="7">
+        <f>MIN(AY76:AY84)</f>
+        <v>7.14</v>
+      </c>
+      <c r="AZ86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA86" s="7">
+        <f>MIN(BA76:BA84)</f>
+        <v>14.44</v>
+      </c>
+      <c r="BB86" s="7">
+        <f t="shared" ref="BB86:BC86" si="169">MIN(BB76:BB84)</f>
+        <v>495.66</v>
+      </c>
+      <c r="BC86" s="7">
+        <f t="shared" si="169"/>
+        <v>512.04</v>
+      </c>
+      <c r="BE86" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF86" s="7">
+        <f>MIN(BF76:BF84)</f>
+        <v>8.69</v>
+      </c>
+      <c r="BG86" s="7">
+        <f>MIN(BG76:BG84)</f>
+        <v>8.16</v>
+      </c>
+      <c r="BH86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI86" s="7">
+        <f>MIN(BI76:BI84)</f>
+        <v>17.71</v>
+      </c>
+      <c r="BJ86" s="7">
+        <f t="shared" ref="BJ86:BK86" si="170">MIN(BJ76:BJ84)</f>
+        <v>1000.76</v>
+      </c>
+      <c r="BK86" s="7">
+        <f t="shared" si="170"/>
+        <v>1024.04</v>
+      </c>
+    </row>
+    <row r="87" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q87" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R87" s="7">
+        <f>MAX(R76:R84)</f>
+        <v>14.58</v>
+      </c>
+      <c r="S87" s="7">
+        <f>MAX(S76:S84)</f>
+        <v>47.2</v>
+      </c>
+      <c r="T87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U87" s="7">
+        <f>MAX(U76:U84)</f>
+        <v>59.99</v>
+      </c>
+      <c r="V87" s="7">
+        <f t="shared" ref="V87:W87" si="171">MAX(V76:V84)</f>
+        <v>178.22</v>
+      </c>
+      <c r="W87" s="7">
+        <f t="shared" si="171"/>
+        <v>195.6</v>
+      </c>
+      <c r="Y87" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z87" s="7">
+        <f>MAX(Z76:Z84)</f>
+        <v>17.68</v>
+      </c>
+      <c r="AA87" s="7">
+        <f>MAX(AA76:AA84)</f>
+        <v>17.61</v>
+      </c>
+      <c r="AB87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC87" s="7">
+        <f>MAX(AC76:AC84)</f>
+        <v>34.840000000000003</v>
+      </c>
+      <c r="AD87" s="7">
+        <f t="shared" ref="AD87:AE87" si="172">MAX(AD76:AD84)</f>
+        <v>290.86</v>
+      </c>
+      <c r="AE87" s="7">
+        <f t="shared" si="172"/>
+        <v>307.24</v>
+      </c>
+      <c r="AG87" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH87" s="7">
+        <f>MAX(AH76:AH84)</f>
+        <v>19.649999999999999</v>
+      </c>
+      <c r="AI87" s="7">
+        <f>MAX(AI76:AI84)</f>
+        <v>16.46</v>
+      </c>
+      <c r="AJ87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK87" s="7">
+        <f>MAX(AK76:AK84)</f>
+        <v>36.07</v>
+      </c>
+      <c r="AL87" s="7">
+        <f t="shared" ref="AL87:AM87" si="173">MAX(AL76:AL84)</f>
+        <v>362.54</v>
+      </c>
+      <c r="AM87" s="7">
+        <f t="shared" si="173"/>
+        <v>378.92</v>
+      </c>
+      <c r="AO87" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP87" s="7">
+        <f>MAX(AP76:AP84)</f>
+        <v>16.239999999999998</v>
+      </c>
+      <c r="AQ87" s="7">
+        <f>MAX(AQ76:AQ84)</f>
+        <v>14.21</v>
+      </c>
+      <c r="AR87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS87" s="7">
+        <f>MAX(AS76:AS84)</f>
+        <v>28.43</v>
+      </c>
+      <c r="AT87" s="7">
+        <f t="shared" ref="AT87:AU87" si="174">MAX(AT76:AT84)</f>
+        <v>393.26</v>
+      </c>
+      <c r="AU87" s="7">
+        <f t="shared" si="174"/>
+        <v>409.64</v>
+      </c>
+      <c r="AW87" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX87" s="7">
+        <f>MAX(AX76:AX84)</f>
+        <v>16.04</v>
+      </c>
+      <c r="AY87" s="7">
+        <f>MAX(AY76:AY84)</f>
+        <v>12.55</v>
+      </c>
+      <c r="AZ87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA87" s="7">
+        <f>MAX(BA76:BA84)</f>
+        <v>26.34</v>
+      </c>
+      <c r="BB87" s="7">
+        <f t="shared" ref="BB87:BC87" si="175">MAX(BB76:BB84)</f>
+        <v>495.66</v>
+      </c>
+      <c r="BC87" s="7">
+        <f t="shared" si="175"/>
+        <v>512.04</v>
+      </c>
+      <c r="BE87" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF87" s="7">
+        <f>MAX(BF76:BF84)</f>
+        <v>19.38</v>
+      </c>
+      <c r="BG87" s="7">
+        <f>MAX(BG76:BG84)</f>
+        <v>17.579999999999998</v>
+      </c>
+      <c r="BH87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI87" s="7">
+        <f>MAX(BI76:BI84)</f>
+        <v>36.33</v>
+      </c>
+      <c r="BJ87" s="7">
+        <f t="shared" ref="BJ87:BK87" si="176">MAX(BJ76:BJ84)</f>
+        <v>1000.76</v>
+      </c>
+      <c r="BK87" s="7">
+        <f t="shared" si="176"/>
+        <v>1024.04</v>
+      </c>
+    </row>
+    <row r="88" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q88" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R88" s="7">
+        <f>_xlfn.STDEV.S(R76:R84)</f>
+        <v>2.309274777933541</v>
+      </c>
+      <c r="S88" s="7">
+        <f t="shared" ref="S88" si="177">_xlfn.STDEV.S(S76:S84)</f>
+        <v>5.1129943390454562</v>
+      </c>
+      <c r="T88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U88" s="7">
+        <f>_xlfn.STDEV.S(U76:U84)</f>
+        <v>6.4994123665998975</v>
+      </c>
+      <c r="V88" s="7">
+        <f t="shared" ref="V88:W88" si="178">_xlfn.STDEV.S(V76:V84)</f>
+        <v>0</v>
+      </c>
+      <c r="W88" s="7">
+        <f t="shared" si="178"/>
+        <v>0.46755867130351875</v>
+      </c>
+      <c r="Y88" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z88" s="7">
+        <f>_xlfn.STDEV.S(Z76:Z84)</f>
+        <v>3.44599405106857</v>
+      </c>
+      <c r="AA88" s="7">
+        <f t="shared" ref="AA88" si="179">_xlfn.STDEV.S(AA76:AA84)</f>
+        <v>2.0452078134018685</v>
+      </c>
+      <c r="AB88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC88" s="7">
+        <f>_xlfn.STDEV.S(AC76:AC84)</f>
+        <v>5.2480948924348008</v>
+      </c>
+      <c r="AD88" s="7">
+        <f t="shared" ref="AD88:AE88" si="180">_xlfn.STDEV.S(AD76:AD84)</f>
+        <v>6.0291550413456957E-14</v>
+      </c>
+      <c r="AE88" s="7">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="AG88" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH88" s="7">
+        <f>_xlfn.STDEV.S(AH76:AH84)</f>
+        <v>3.9179388004975779</v>
+      </c>
+      <c r="AI88" s="7">
+        <f t="shared" ref="AI88" si="181">_xlfn.STDEV.S(AI76:AI84)</f>
+        <v>3.1652913680172405</v>
+      </c>
+      <c r="AJ88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK88" s="7">
+        <f>_xlfn.STDEV.S(AK76:AK84)</f>
+        <v>5.4502798093308842</v>
+      </c>
+      <c r="AL88" s="7">
+        <f t="shared" ref="AL88:AM88" si="182">_xlfn.STDEV.S(AL76:AL84)</f>
+        <v>0</v>
+      </c>
+      <c r="AM88" s="7">
+        <f t="shared" si="182"/>
+        <v>0</v>
+      </c>
+      <c r="AO88" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP88" s="7">
+        <f>_xlfn.STDEV.S(AP76:AP84)</f>
+        <v>2.6115071212700989</v>
+      </c>
+      <c r="AQ88" s="7">
+        <f t="shared" ref="AQ88" si="183">_xlfn.STDEV.S(AQ76:AQ84)</f>
+        <v>2.4500056689276808</v>
+      </c>
+      <c r="AR88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS88" s="7">
+        <f>_xlfn.STDEV.S(AS76:AS84)</f>
+        <v>4.4832688966868535</v>
+      </c>
+      <c r="AT88" s="7">
+        <f t="shared" ref="AT88:AU88" si="184">_xlfn.STDEV.S(AT76:AT84)</f>
+        <v>0</v>
+      </c>
+      <c r="AU88" s="7">
+        <f t="shared" si="184"/>
+        <v>6.0291550413456957E-14</v>
+      </c>
+      <c r="AW88" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX88" s="7">
+        <f>_xlfn.STDEV.S(AX76:AX84)</f>
+        <v>2.7316803945150228</v>
+      </c>
+      <c r="AY88" s="7">
+        <f t="shared" ref="AY88" si="185">_xlfn.STDEV.S(AY76:AY84)</f>
+        <v>1.8807253328909523</v>
+      </c>
+      <c r="AZ88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA88" s="7">
+        <f>_xlfn.STDEV.S(BA76:BA84)</f>
+        <v>4.0285774301993111</v>
+      </c>
+      <c r="BB88" s="7">
+        <f t="shared" ref="BB88:BC88" si="186">_xlfn.STDEV.S(BB76:BB84)</f>
+        <v>6.0291550413456957E-14</v>
+      </c>
+      <c r="BC88" s="7">
+        <f t="shared" si="186"/>
+        <v>0</v>
+      </c>
+      <c r="BE88" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF88" s="7">
+        <f>_xlfn.STDEV.S(BF76:BF84)</f>
+        <v>3.9635351784879007</v>
+      </c>
+      <c r="BG88" s="7">
+        <f t="shared" ref="BG88" si="187">_xlfn.STDEV.S(BG76:BG84)</f>
+        <v>2.7972486482256103</v>
+      </c>
+      <c r="BH88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI88" s="7">
+        <f>_xlfn.STDEV.S(BI76:BI84)</f>
+        <v>6.0336440988105391</v>
+      </c>
+      <c r="BJ88" s="7">
+        <f t="shared" ref="BJ88:BK88" si="188">_xlfn.STDEV.S(BJ76:BJ84)</f>
+        <v>0</v>
+      </c>
+      <c r="BK88" s="7">
+        <f t="shared" si="188"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>27</v>
+      </c>
+      <c r="B91" t="s">
+        <v>26</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I91" t="s">
+        <v>27</v>
+      </c>
+      <c r="J91" t="s">
+        <v>26</v>
+      </c>
+      <c r="K91" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>27</v>
+      </c>
+      <c r="R91" t="s">
+        <v>26</v>
+      </c>
+      <c r="S91" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA91" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG91" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH91" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI91" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO91" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP91" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ91" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AW91" t="s">
+        <v>29</v>
+      </c>
+      <c r="AX91" t="s">
+        <v>26</v>
+      </c>
+      <c r="AY91" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="BE91" t="s">
+        <v>29</v>
+      </c>
+      <c r="BF91" t="s">
+        <v>26</v>
+      </c>
+      <c r="BG91" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:63" ht="60" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U92" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W92" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA92" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC92" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE92" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI92" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK92" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM92" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ92" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS92" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU92" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AW92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY92" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AZ92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA92" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="BC92" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="BE92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG92" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BH92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI92" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BJ92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="BK92" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>1</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I93" s="2">
+        <v>1</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q93" s="2">
+        <v>1</v>
+      </c>
+      <c r="R93" s="2">
+        <v>64.42</v>
+      </c>
+      <c r="S93" s="2">
+        <v>31.12</v>
+      </c>
+      <c r="T93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U93" s="3">
+        <f t="shared" ref="U93:U102" si="189">R93+S93</f>
+        <v>95.54</v>
+      </c>
+      <c r="V93" s="11">
+        <v>178.22</v>
+      </c>
+      <c r="W93" s="11">
+        <v>194.56</v>
+      </c>
+      <c r="Y93" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z93" s="2">
+        <v>44.12</v>
+      </c>
+      <c r="AA93" s="2">
+        <v>7.49</v>
+      </c>
+      <c r="AB93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC93" s="3">
+        <f t="shared" ref="AC93:AC102" si="190">Z93+AA93</f>
+        <v>51.61</v>
+      </c>
+      <c r="AD93" s="11">
+        <v>290.86</v>
+      </c>
+      <c r="AE93" s="11">
+        <v>307.24</v>
+      </c>
+      <c r="AG93" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH93" s="2">
+        <v>67.45</v>
+      </c>
+      <c r="AI93" s="2">
+        <v>12.37</v>
+      </c>
+      <c r="AJ93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK93" s="3">
+        <f t="shared" ref="AK93:AK102" si="191">AH93+AI93</f>
+        <v>79.820000000000007</v>
+      </c>
+      <c r="AL93" s="11">
+        <v>362.54</v>
+      </c>
+      <c r="AM93" s="11">
+        <v>378.92</v>
+      </c>
+      <c r="AO93" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP93" s="2">
+        <v>56.55</v>
+      </c>
+      <c r="AQ93" s="2">
+        <v>11.78</v>
+      </c>
+      <c r="AR93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS93" s="3">
+        <f t="shared" ref="AS93:AS102" si="192">AP93+AQ93</f>
+        <v>68.33</v>
+      </c>
+      <c r="AT93" s="11">
+        <v>393.26</v>
+      </c>
+      <c r="AU93" s="11">
+        <v>409.64</v>
+      </c>
+      <c r="AW93" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX93" s="2">
+        <v>64.040000000000006</v>
+      </c>
+      <c r="AY93" s="2">
+        <v>5.47</v>
+      </c>
+      <c r="AZ93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA93" s="3">
+        <f>AX93+AY93</f>
+        <v>69.510000000000005</v>
+      </c>
+      <c r="BB93" s="11">
+        <v>495.66</v>
+      </c>
+      <c r="BC93" s="11">
+        <v>512.04</v>
+      </c>
+      <c r="BE93" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF93" s="2">
+        <v>59.82</v>
+      </c>
+      <c r="BG93" s="2">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="BH93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI93" s="3">
+        <f>BF93+BG93</f>
+        <v>68.599999999999994</v>
+      </c>
+      <c r="BJ93" s="11">
+        <v>1000.76</v>
+      </c>
+      <c r="BK93" s="11">
+        <v>1024.04</v>
+      </c>
+    </row>
+    <row r="94" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>2</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="4">
+        <v>2</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q94" s="4">
+        <v>2</v>
+      </c>
+      <c r="R94" s="4">
+        <v>13.36</v>
+      </c>
+      <c r="S94" s="4">
+        <v>37.49</v>
+      </c>
+      <c r="T94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U94" s="11">
+        <f t="shared" si="189"/>
+        <v>50.85</v>
+      </c>
+      <c r="V94" s="11">
+        <v>178.22</v>
+      </c>
+      <c r="W94" s="11">
+        <v>194.51</v>
+      </c>
+      <c r="Y94" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z94" s="4">
+        <v>8.77</v>
+      </c>
+      <c r="AA94" s="4">
+        <v>12.56</v>
+      </c>
+      <c r="AB94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC94" s="11">
+        <f t="shared" si="190"/>
+        <v>21.33</v>
+      </c>
+      <c r="AD94" s="11">
+        <v>290.86</v>
+      </c>
+      <c r="AE94" s="11">
+        <v>307.24</v>
+      </c>
+      <c r="AG94" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH94" s="4">
+        <v>12.76</v>
+      </c>
+      <c r="AI94" s="4">
+        <v>9.86</v>
+      </c>
+      <c r="AJ94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK94" s="11">
+        <f t="shared" si="191"/>
+        <v>22.619999999999997</v>
+      </c>
+      <c r="AL94" s="11">
+        <v>362.54</v>
+      </c>
+      <c r="AM94" s="11">
+        <v>378.92</v>
+      </c>
+      <c r="AO94" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP94" s="4">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="AQ94" s="4">
+        <v>19.7</v>
+      </c>
+      <c r="AR94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS94" s="11">
+        <f t="shared" si="192"/>
+        <v>39.19</v>
+      </c>
+      <c r="AT94" s="11">
+        <v>393.26</v>
+      </c>
+      <c r="AU94" s="11">
+        <v>409.64</v>
+      </c>
+      <c r="AW94" s="4">
+        <v>2</v>
+      </c>
+      <c r="AX94" s="4">
+        <v>11.24</v>
+      </c>
+      <c r="AY94" s="4">
+        <v>11.34</v>
+      </c>
+      <c r="AZ94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA94" s="11">
+        <f>AX94+AY94</f>
+        <v>22.58</v>
+      </c>
+      <c r="BB94" s="11">
+        <v>495.66</v>
+      </c>
+      <c r="BC94" s="11">
+        <v>512.04</v>
+      </c>
+      <c r="BE94" s="4">
+        <v>2</v>
+      </c>
+      <c r="BF94" s="4">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="BG94" s="4">
+        <v>10.36</v>
+      </c>
+      <c r="BH94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI94" s="11">
+        <f>BF94+BG94</f>
+        <v>19.979999999999997</v>
+      </c>
+      <c r="BJ94" s="11">
+        <v>1000.76</v>
+      </c>
+      <c r="BK94" s="11">
+        <v>1024.04</v>
+      </c>
+    </row>
+    <row r="95" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>3</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I95" s="4">
+        <v>3</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q95" s="4">
+        <v>3</v>
+      </c>
+      <c r="R95" s="4">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="S95" s="4">
+        <v>27.54</v>
+      </c>
+      <c r="T95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U95" s="11">
+        <f t="shared" si="189"/>
+        <v>37.159999999999997</v>
+      </c>
+      <c r="V95" s="11">
+        <v>178.22</v>
+      </c>
+      <c r="W95" s="11">
+        <v>194.43</v>
+      </c>
+      <c r="Y95" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z95" s="4">
+        <v>9.67</v>
+      </c>
+      <c r="AA95" s="4">
+        <v>12.2</v>
+      </c>
+      <c r="AB95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC95" s="11">
+        <f t="shared" si="190"/>
+        <v>21.869999999999997</v>
+      </c>
+      <c r="AD95" s="11">
+        <v>290.86</v>
+      </c>
+      <c r="AE95" s="11">
+        <v>307.24</v>
+      </c>
+      <c r="AG95" s="4">
+        <v>3</v>
+      </c>
+      <c r="AH95" s="4">
+        <v>11.23</v>
+      </c>
+      <c r="AI95" s="4">
+        <v>14.34</v>
+      </c>
+      <c r="AJ95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK95" s="11">
+        <f t="shared" si="191"/>
+        <v>25.57</v>
+      </c>
+      <c r="AL95" s="11">
+        <v>362.54</v>
+      </c>
+      <c r="AM95" s="11">
+        <v>378.92</v>
+      </c>
+      <c r="AO95" s="4">
+        <v>3</v>
+      </c>
+      <c r="AP95" s="4">
+        <v>19.010000000000002</v>
+      </c>
+      <c r="AQ95" s="4">
+        <v>19.63</v>
+      </c>
+      <c r="AR95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS95" s="11">
+        <f t="shared" si="192"/>
+        <v>38.64</v>
+      </c>
+      <c r="AT95" s="11">
+        <v>393.26</v>
+      </c>
+      <c r="AU95" s="11">
+        <v>409.64</v>
+      </c>
+      <c r="AW95" s="4">
+        <v>3</v>
+      </c>
+      <c r="AX95" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AY95" s="4">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="AZ95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA95" s="11">
+        <f t="shared" ref="BA95:BA102" si="193">AX95+AY95</f>
+        <v>18.079999999999998</v>
+      </c>
+      <c r="BB95" s="11">
+        <v>495.66</v>
+      </c>
+      <c r="BC95" s="11">
+        <v>512.04</v>
+      </c>
+      <c r="BE95" s="4">
+        <v>3</v>
+      </c>
+      <c r="BF95" s="4">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="BG95" s="4">
+        <v>8.31</v>
+      </c>
+      <c r="BH95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI95" s="11">
+        <f t="shared" ref="BI95:BI102" si="194">BF95+BG95</f>
+        <v>18.100000000000001</v>
+      </c>
+      <c r="BJ95" s="11">
+        <v>1000.76</v>
+      </c>
+      <c r="BK95" s="11">
+        <v>1024.04</v>
+      </c>
+    </row>
+    <row r="96" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>4</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I96" s="4">
+        <v>4</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q96" s="4">
+        <v>4</v>
+      </c>
+      <c r="R96" s="4">
+        <v>21.46</v>
+      </c>
+      <c r="S96" s="4">
+        <v>51.15</v>
+      </c>
+      <c r="T96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U96" s="11">
+        <f t="shared" si="189"/>
+        <v>72.61</v>
+      </c>
+      <c r="V96" s="11">
+        <v>178.22</v>
+      </c>
+      <c r="W96" s="11">
+        <v>195.58</v>
+      </c>
+      <c r="Y96" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z96" s="4">
+        <v>10.66</v>
+      </c>
+      <c r="AA96" s="12">
+        <v>13.6</v>
+      </c>
+      <c r="AB96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC96" s="11">
+        <f t="shared" si="190"/>
+        <v>24.259999999999998</v>
+      </c>
+      <c r="AD96" s="11">
+        <v>290.86</v>
+      </c>
+      <c r="AE96" s="11">
+        <v>307.24</v>
+      </c>
+      <c r="AG96" s="4">
+        <v>4</v>
+      </c>
+      <c r="AH96" s="4">
+        <v>8.94</v>
+      </c>
+      <c r="AI96" s="12">
+        <v>8.68</v>
+      </c>
+      <c r="AJ96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK96" s="11">
+        <f t="shared" si="191"/>
+        <v>17.619999999999997</v>
+      </c>
+      <c r="AL96" s="11">
+        <v>362.54</v>
+      </c>
+      <c r="AM96" s="11">
+        <v>378.92</v>
+      </c>
+      <c r="AO96" s="4">
+        <v>4</v>
+      </c>
+      <c r="AP96" s="4">
+        <v>23.89</v>
+      </c>
+      <c r="AQ96" s="4">
+        <v>23.48</v>
+      </c>
+      <c r="AR96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS96" s="11">
+        <f t="shared" si="192"/>
+        <v>47.370000000000005</v>
+      </c>
+      <c r="AT96" s="11">
+        <v>393.26</v>
+      </c>
+      <c r="AU96" s="11">
+        <v>409.64</v>
+      </c>
+      <c r="AW96" s="4">
+        <v>4</v>
+      </c>
+      <c r="AX96" s="4">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="AY96" s="4">
+        <v>9.33</v>
+      </c>
+      <c r="AZ96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA96" s="11">
+        <f t="shared" si="193"/>
+        <v>18.29</v>
+      </c>
+      <c r="BB96" s="11">
+        <v>495.66</v>
+      </c>
+      <c r="BC96" s="11">
+        <v>512.04</v>
+      </c>
+      <c r="BE96" s="4">
+        <v>4</v>
+      </c>
+      <c r="BF96" s="4">
+        <v>10.69</v>
+      </c>
+      <c r="BG96" s="4">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="BH96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI96" s="11">
+        <f t="shared" si="194"/>
+        <v>20.57</v>
+      </c>
+      <c r="BJ96" s="11">
+        <v>1000.76</v>
+      </c>
+      <c r="BK96" s="11">
+        <v>1024.04</v>
+      </c>
+    </row>
+    <row r="97" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>5</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I97" s="4">
+        <v>5</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q97" s="4">
+        <v>5</v>
+      </c>
+      <c r="R97" s="4">
+        <v>13.27</v>
+      </c>
+      <c r="S97" s="4">
+        <v>48.74</v>
+      </c>
+      <c r="T97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U97" s="11">
+        <f t="shared" si="189"/>
+        <v>62.010000000000005</v>
+      </c>
+      <c r="V97" s="11">
+        <v>178.22</v>
+      </c>
+      <c r="W97" s="11">
+        <v>195.6</v>
+      </c>
+      <c r="Y97" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z97" s="4">
+        <v>10.69</v>
+      </c>
+      <c r="AA97" s="4">
+        <v>13.21</v>
+      </c>
+      <c r="AB97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC97" s="11">
+        <f t="shared" si="190"/>
+        <v>23.9</v>
+      </c>
+      <c r="AD97" s="11">
+        <v>290.86</v>
+      </c>
+      <c r="AE97" s="11">
+        <v>307.24</v>
+      </c>
+      <c r="AG97" s="4">
+        <v>5</v>
+      </c>
+      <c r="AH97" s="4">
+        <v>12.98</v>
+      </c>
+      <c r="AI97" s="4">
+        <v>13.81</v>
+      </c>
+      <c r="AJ97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK97" s="11">
+        <f t="shared" si="191"/>
+        <v>26.79</v>
+      </c>
+      <c r="AL97" s="11">
+        <v>362.54</v>
+      </c>
+      <c r="AM97" s="11">
+        <v>378.92</v>
+      </c>
+      <c r="AO97" s="4">
+        <v>5</v>
+      </c>
+      <c r="AP97" s="4">
+        <v>26.11</v>
+      </c>
+      <c r="AQ97" s="4">
+        <v>24.95</v>
+      </c>
+      <c r="AR97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS97" s="11">
+        <f t="shared" si="192"/>
+        <v>51.06</v>
+      </c>
+      <c r="AT97" s="11">
+        <v>393.26</v>
+      </c>
+      <c r="AU97" s="11">
+        <v>409.64</v>
+      </c>
+      <c r="AW97" s="4">
+        <v>5</v>
+      </c>
+      <c r="AX97" s="4">
+        <v>10.78</v>
+      </c>
+      <c r="AY97" s="4">
+        <v>13</v>
+      </c>
+      <c r="AZ97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA97" s="11">
+        <f t="shared" si="193"/>
+        <v>23.78</v>
+      </c>
+      <c r="BB97" s="11">
+        <v>495.66</v>
+      </c>
+      <c r="BC97" s="11">
+        <v>512.04</v>
+      </c>
+      <c r="BE97" s="4">
+        <v>5</v>
+      </c>
+      <c r="BF97" s="4">
+        <v>10.72</v>
+      </c>
+      <c r="BG97" s="4">
+        <v>12.34</v>
+      </c>
+      <c r="BH97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI97" s="11">
+        <f t="shared" si="194"/>
+        <v>23.060000000000002</v>
+      </c>
+      <c r="BJ97" s="11">
+        <v>1000.76</v>
+      </c>
+      <c r="BK97" s="11">
+        <v>1024.04</v>
+      </c>
+    </row>
+    <row r="98" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>6</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98" s="4">
+        <v>6</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q98" s="4">
+        <v>6</v>
+      </c>
+      <c r="R98" s="4">
+        <v>13.36</v>
+      </c>
+      <c r="S98" s="4">
+        <v>29.12</v>
+      </c>
+      <c r="T98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U98" s="11">
+        <f t="shared" si="189"/>
+        <v>42.480000000000004</v>
+      </c>
+      <c r="V98" s="11">
+        <v>178.22</v>
+      </c>
+      <c r="W98" s="11">
+        <v>194.55</v>
+      </c>
+      <c r="Y98" s="4">
+        <v>6</v>
+      </c>
+      <c r="Z98" s="4">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="AA98" s="4">
+        <v>12.25</v>
+      </c>
+      <c r="AB98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC98" s="11">
+        <f t="shared" si="190"/>
+        <v>20.46</v>
+      </c>
+      <c r="AD98" s="11">
+        <v>290.86</v>
+      </c>
+      <c r="AE98" s="11">
+        <v>307.24</v>
+      </c>
+      <c r="AG98" s="4">
+        <v>6</v>
+      </c>
+      <c r="AH98" s="4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AI98" s="4">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="AJ98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK98" s="11">
+        <f t="shared" si="191"/>
+        <v>17.979999999999997</v>
+      </c>
+      <c r="AL98" s="11">
+        <v>362.54</v>
+      </c>
+      <c r="AM98" s="11">
+        <v>378.92</v>
+      </c>
+      <c r="AO98" s="4">
+        <v>6</v>
+      </c>
+      <c r="AP98" s="4">
+        <v>25.4</v>
+      </c>
+      <c r="AQ98" s="4">
+        <v>25.1</v>
+      </c>
+      <c r="AR98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS98" s="11">
+        <f t="shared" si="192"/>
+        <v>50.5</v>
+      </c>
+      <c r="AT98" s="11">
+        <v>393.26</v>
+      </c>
+      <c r="AU98" s="11">
+        <v>409.64</v>
+      </c>
+      <c r="AW98" s="4">
+        <v>6</v>
+      </c>
+      <c r="AX98" s="4">
+        <v>19.14</v>
+      </c>
+      <c r="AY98" s="4">
+        <v>11.74</v>
+      </c>
+      <c r="AZ98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA98" s="11">
+        <f t="shared" si="193"/>
+        <v>30.880000000000003</v>
+      </c>
+      <c r="BB98" s="11">
+        <v>495.66</v>
+      </c>
+      <c r="BC98" s="11">
+        <v>512.04</v>
+      </c>
+      <c r="BE98" s="4">
+        <v>6</v>
+      </c>
+      <c r="BF98" s="4">
+        <v>11.88</v>
+      </c>
+      <c r="BG98" s="4">
+        <v>9.94</v>
+      </c>
+      <c r="BH98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI98" s="11">
+        <f t="shared" si="194"/>
+        <v>21.82</v>
+      </c>
+      <c r="BJ98" s="11">
+        <v>1000.76</v>
+      </c>
+      <c r="BK98" s="11">
+        <v>1024.04</v>
+      </c>
+    </row>
+    <row r="99" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>7</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99" s="4">
+        <v>7</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q99" s="4">
+        <v>7</v>
+      </c>
+      <c r="R99" s="4">
+        <v>9.57</v>
+      </c>
+      <c r="S99" s="4">
+        <v>29.16</v>
+      </c>
+      <c r="T99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U99" s="11">
+        <f t="shared" si="189"/>
+        <v>38.730000000000004</v>
+      </c>
+      <c r="V99" s="11">
+        <v>178.22</v>
+      </c>
+      <c r="W99" s="11">
+        <v>194.57</v>
+      </c>
+      <c r="Y99" s="4">
+        <v>7</v>
+      </c>
+      <c r="Z99" s="4">
+        <v>9.61</v>
+      </c>
+      <c r="AA99" s="4">
+        <v>12.39</v>
+      </c>
+      <c r="AB99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC99" s="11">
+        <f t="shared" si="190"/>
+        <v>22</v>
+      </c>
+      <c r="AD99" s="11">
+        <v>290.86</v>
+      </c>
+      <c r="AE99" s="11">
+        <v>307.24</v>
+      </c>
+      <c r="AG99" s="4">
+        <v>7</v>
+      </c>
+      <c r="AH99" s="4">
+        <v>12.14</v>
+      </c>
+      <c r="AI99" s="4">
+        <v>14.16</v>
+      </c>
+      <c r="AJ99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK99" s="11">
+        <f t="shared" si="191"/>
+        <v>26.3</v>
+      </c>
+      <c r="AL99" s="11">
+        <v>362.54</v>
+      </c>
+      <c r="AM99" s="11">
+        <v>378.92</v>
+      </c>
+      <c r="AO99" s="4">
+        <v>7</v>
+      </c>
+      <c r="AP99" s="4">
+        <v>19.98</v>
+      </c>
+      <c r="AQ99" s="4">
+        <v>20.38</v>
+      </c>
+      <c r="AR99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS99" s="11">
+        <f t="shared" si="192"/>
+        <v>40.36</v>
+      </c>
+      <c r="AT99" s="11">
+        <v>393.26</v>
+      </c>
+      <c r="AU99" s="11">
+        <v>409.64</v>
+      </c>
+      <c r="AW99" s="4">
+        <v>7</v>
+      </c>
+      <c r="AX99" s="4">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="AY99" s="4">
+        <v>11.67</v>
+      </c>
+      <c r="AZ99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA99" s="11">
+        <f t="shared" si="193"/>
+        <v>21.04</v>
+      </c>
+      <c r="BB99" s="11">
+        <v>495.66</v>
+      </c>
+      <c r="BC99" s="11">
+        <v>512.04</v>
+      </c>
+      <c r="BE99" s="4">
+        <v>7</v>
+      </c>
+      <c r="BF99" s="4">
+        <v>11.08</v>
+      </c>
+      <c r="BG99" s="4">
+        <v>8.27</v>
+      </c>
+      <c r="BH99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI99" s="11">
+        <f t="shared" si="194"/>
+        <v>19.350000000000001</v>
+      </c>
+      <c r="BJ99" s="11">
+        <v>1000.76</v>
+      </c>
+      <c r="BK99" s="11">
+        <v>1024.04</v>
+      </c>
+    </row>
+    <row r="100" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>8</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" s="4">
+        <v>8</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q100" s="4">
+        <v>8</v>
+      </c>
+      <c r="R100" s="4">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="S100" s="4">
+        <v>32.840000000000003</v>
+      </c>
+      <c r="T100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U100" s="11">
+        <f t="shared" si="189"/>
+        <v>50.940000000000005</v>
+      </c>
+      <c r="V100" s="11">
+        <v>178.22</v>
+      </c>
+      <c r="W100" s="11">
+        <v>194.56</v>
+      </c>
+      <c r="Y100" s="4">
+        <v>8</v>
+      </c>
+      <c r="Z100" s="4">
+        <v>11.45</v>
+      </c>
+      <c r="AA100" s="4">
+        <v>14.46</v>
+      </c>
+      <c r="AB100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC100" s="11">
+        <f t="shared" si="190"/>
+        <v>25.91</v>
+      </c>
+      <c r="AD100" s="11">
+        <v>290.86</v>
+      </c>
+      <c r="AE100" s="11">
+        <v>307.24</v>
+      </c>
+      <c r="AG100" s="4">
+        <v>8</v>
+      </c>
+      <c r="AH100" s="4">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="AI100" s="4">
+        <v>17.86</v>
+      </c>
+      <c r="AJ100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK100" s="11">
+        <f t="shared" si="191"/>
+        <v>38.03</v>
+      </c>
+      <c r="AL100" s="11">
+        <v>362.54</v>
+      </c>
+      <c r="AM100" s="11">
+        <v>378.92</v>
+      </c>
+      <c r="AO100" s="4">
+        <v>8</v>
+      </c>
+      <c r="AP100" s="4">
+        <v>20.87</v>
+      </c>
+      <c r="AQ100" s="4">
+        <v>23.88</v>
+      </c>
+      <c r="AR100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS100" s="11">
+        <f t="shared" si="192"/>
+        <v>44.75</v>
+      </c>
+      <c r="AT100" s="11">
+        <v>393.26</v>
+      </c>
+      <c r="AU100" s="11">
+        <v>409.64</v>
+      </c>
+      <c r="AW100" s="4">
+        <v>8</v>
+      </c>
+      <c r="AX100" s="4">
+        <v>10.53</v>
+      </c>
+      <c r="AY100" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="AZ100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA100" s="11">
+        <f t="shared" si="193"/>
+        <v>20.93</v>
+      </c>
+      <c r="BB100" s="11">
+        <v>495.66</v>
+      </c>
+      <c r="BC100" s="11">
+        <v>512.04</v>
+      </c>
+      <c r="BE100" s="4">
+        <v>8</v>
+      </c>
+      <c r="BF100" s="4">
+        <v>9.83</v>
+      </c>
+      <c r="BG100" s="4">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="BH100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI100" s="11">
+        <f t="shared" si="194"/>
+        <v>18.28</v>
+      </c>
+      <c r="BJ100" s="11">
+        <v>1000.76</v>
+      </c>
+      <c r="BK100" s="11">
+        <v>1024.04</v>
+      </c>
+    </row>
+    <row r="101" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>9</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" s="4">
+        <v>9</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q101" s="4">
+        <v>9</v>
+      </c>
+      <c r="R101" s="4">
+        <v>11.53</v>
+      </c>
+      <c r="S101" s="4">
+        <v>40.64</v>
+      </c>
+      <c r="T101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U101" s="11">
+        <f t="shared" si="189"/>
+        <v>52.17</v>
+      </c>
+      <c r="V101" s="11">
+        <v>178.22</v>
+      </c>
+      <c r="W101" s="11">
+        <v>194.56</v>
+      </c>
+      <c r="Y101" s="4">
+        <v>9</v>
+      </c>
+      <c r="Z101" s="4">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="AA101" s="4">
+        <v>11.78</v>
+      </c>
+      <c r="AB101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC101" s="11">
+        <f t="shared" si="190"/>
+        <v>21.75</v>
+      </c>
+      <c r="AD101" s="11">
+        <v>290.86</v>
+      </c>
+      <c r="AE101" s="11">
+        <v>307.24</v>
+      </c>
+      <c r="AG101" s="4">
+        <v>9</v>
+      </c>
+      <c r="AH101" s="4">
+        <v>12.27</v>
+      </c>
+      <c r="AI101" s="4">
+        <v>12.89</v>
+      </c>
+      <c r="AJ101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK101" s="11">
+        <f t="shared" si="191"/>
+        <v>25.16</v>
+      </c>
+      <c r="AL101" s="11">
+        <v>362.54</v>
+      </c>
+      <c r="AM101" s="11">
+        <v>378.92</v>
+      </c>
+      <c r="AO101" s="4">
+        <v>9</v>
+      </c>
+      <c r="AP101" s="4">
+        <v>30.48</v>
+      </c>
+      <c r="AQ101" s="4">
+        <v>22.37</v>
+      </c>
+      <c r="AR101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS101" s="11">
+        <f t="shared" si="192"/>
+        <v>52.85</v>
+      </c>
+      <c r="AT101" s="11">
+        <v>393.26</v>
+      </c>
+      <c r="AU101" s="11">
+        <v>409.64</v>
+      </c>
+      <c r="AW101" s="4">
+        <v>9</v>
+      </c>
+      <c r="AX101" s="4">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="AY101" s="4">
+        <v>11.57</v>
+      </c>
+      <c r="AZ101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA101" s="11">
+        <f t="shared" si="193"/>
+        <v>21.54</v>
+      </c>
+      <c r="BB101" s="11">
+        <v>495.66</v>
+      </c>
+      <c r="BC101" s="11">
+        <v>512.04</v>
+      </c>
+      <c r="BE101" s="4">
+        <v>9</v>
+      </c>
+      <c r="BF101" s="4">
+        <v>11.44</v>
+      </c>
+      <c r="BG101" s="4">
+        <v>10.31</v>
+      </c>
+      <c r="BH101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI101" s="11">
+        <f t="shared" si="194"/>
+        <v>21.75</v>
+      </c>
+      <c r="BJ101" s="11">
+        <v>1000.76</v>
+      </c>
+      <c r="BK101" s="11">
+        <v>1024.04</v>
+      </c>
+    </row>
+    <row r="102" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>10</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" s="4">
+        <v>10</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q102" s="4">
+        <v>10</v>
+      </c>
+      <c r="R102" s="4">
+        <v>11.55</v>
+      </c>
+      <c r="S102" s="4">
+        <v>28.55</v>
+      </c>
+      <c r="T102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U102" s="11">
+        <f t="shared" si="189"/>
+        <v>40.1</v>
+      </c>
+      <c r="V102" s="11">
+        <v>178.22</v>
+      </c>
+      <c r="W102" s="11">
+        <v>194.56</v>
+      </c>
+      <c r="Y102" s="4">
+        <v>10</v>
+      </c>
+      <c r="Z102" s="12">
+        <v>10.52</v>
+      </c>
+      <c r="AA102" s="4">
+        <v>16.739999999999998</v>
+      </c>
+      <c r="AB102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC102" s="11">
+        <f t="shared" si="190"/>
+        <v>27.259999999999998</v>
+      </c>
+      <c r="AD102" s="11">
+        <v>290.86</v>
+      </c>
+      <c r="AE102" s="11">
+        <v>307.24</v>
+      </c>
+      <c r="AG102" s="4">
+        <v>10</v>
+      </c>
+      <c r="AH102" s="12">
+        <v>9.9</v>
+      </c>
+      <c r="AI102" s="4">
+        <v>9.89</v>
+      </c>
+      <c r="AJ102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK102" s="11">
+        <f t="shared" si="191"/>
+        <v>19.79</v>
+      </c>
+      <c r="AL102" s="11">
+        <v>362.54</v>
+      </c>
+      <c r="AM102" s="11">
+        <v>378.92</v>
+      </c>
+      <c r="AO102" s="4">
+        <v>10</v>
+      </c>
+      <c r="AP102" s="4">
+        <v>27.36</v>
+      </c>
+      <c r="AQ102" s="4">
+        <v>22.27</v>
+      </c>
+      <c r="AR102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS102" s="11">
+        <f t="shared" si="192"/>
+        <v>49.629999999999995</v>
+      </c>
+      <c r="AT102" s="11">
+        <v>393.26</v>
+      </c>
+      <c r="AU102" s="11">
+        <v>409.64</v>
+      </c>
+      <c r="AW102" s="4">
+        <v>10</v>
+      </c>
+      <c r="AX102" s="4">
+        <v>8.84</v>
+      </c>
+      <c r="AY102" s="4">
+        <v>11.35</v>
+      </c>
+      <c r="AZ102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA102" s="11">
+        <f t="shared" si="193"/>
+        <v>20.189999999999998</v>
+      </c>
+      <c r="BB102" s="11">
+        <v>495.66</v>
+      </c>
+      <c r="BC102" s="11">
+        <v>512.04</v>
+      </c>
+      <c r="BE102" s="4">
+        <v>10</v>
+      </c>
+      <c r="BF102" s="4">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="BG102" s="4">
+        <v>10.91</v>
+      </c>
+      <c r="BH102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI102" s="11">
+        <f t="shared" si="194"/>
+        <v>21.12</v>
+      </c>
+      <c r="BJ102" s="11">
+        <v>1000.76</v>
+      </c>
+      <c r="BK102" s="11">
+        <v>1024.04</v>
+      </c>
+    </row>
+    <row r="103" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q103" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R103" s="6">
+        <f>AVERAGE(R94:R102)</f>
+        <v>13.535555555555554</v>
+      </c>
+      <c r="S103" s="6">
+        <f>AVERAGE(S94:S102)</f>
+        <v>36.13666666666667</v>
+      </c>
+      <c r="T103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U103" s="9">
+        <f>AVERAGE(U94:U102)</f>
+        <v>49.672222222222231</v>
+      </c>
+      <c r="V103" s="6">
+        <f t="shared" ref="V103:W103" si="195">AVERAGE(V94:V102)</f>
+        <v>178.22</v>
+      </c>
+      <c r="W103" s="6">
+        <f t="shared" si="195"/>
+        <v>194.76888888888888</v>
+      </c>
+      <c r="Y103" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z103" s="6">
+        <f>AVERAGE(Z94:Z102)</f>
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="AA103" s="6">
+        <f>AVERAGE(AA94:AA102)</f>
+        <v>13.243333333333334</v>
+      </c>
+      <c r="AB103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC103" s="9">
+        <f>AVERAGE(AC94:AC102)</f>
+        <v>23.193333333333332</v>
+      </c>
+      <c r="AD103" s="6">
+        <f t="shared" ref="AD103:AE103" si="196">AVERAGE(AD94:AD102)</f>
+        <v>290.86000000000007</v>
+      </c>
+      <c r="AE103" s="6">
+        <f t="shared" si="196"/>
+        <v>307.24</v>
+      </c>
+      <c r="AG103" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH103" s="6">
+        <f>AVERAGE(AH94:AH102)</f>
+        <v>12.232222222222223</v>
+      </c>
+      <c r="AI103" s="6">
+        <f>AVERAGE(AI94:AI102)</f>
+        <v>12.196666666666665</v>
+      </c>
+      <c r="AJ103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK103" s="9">
+        <f>AVERAGE(AK94:AK102)</f>
+        <v>24.428888888888888</v>
+      </c>
+      <c r="AL103" s="6">
+        <f t="shared" ref="AL103:AM103" si="197">AVERAGE(AL94:AL102)</f>
+        <v>362.54</v>
+      </c>
+      <c r="AM103" s="6">
+        <f t="shared" si="197"/>
+        <v>378.92</v>
+      </c>
+      <c r="AO103" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP103" s="6">
+        <f>AVERAGE(AP94:AP102)</f>
+        <v>23.621111111111109</v>
+      </c>
+      <c r="AQ103" s="6">
+        <f>AVERAGE(AQ94:AQ102)</f>
+        <v>22.417777777777779</v>
+      </c>
+      <c r="AR103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS103" s="9">
+        <f>AVERAGE(AS94:AS102)</f>
+        <v>46.038888888888891</v>
+      </c>
+      <c r="AT103" s="6">
+        <f t="shared" ref="AT103:AU103" si="198">AVERAGE(AT94:AT102)</f>
+        <v>393.26</v>
+      </c>
+      <c r="AU103" s="6">
+        <f t="shared" si="198"/>
+        <v>409.63999999999993</v>
+      </c>
+      <c r="AW103" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX103" s="6">
+        <f>AVERAGE(AX94:AX102)</f>
+        <v>10.847777777777779</v>
+      </c>
+      <c r="AY103" s="6">
+        <f>AVERAGE(AY94:AY102)</f>
+        <v>11.075555555555557</v>
+      </c>
+      <c r="AZ103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA103" s="9">
+        <f>AVERAGE(BA94:BA102)</f>
+        <v>21.923333333333332</v>
+      </c>
+      <c r="BB103" s="6">
+        <f t="shared" ref="BB103:BC103" si="199">AVERAGE(BB94:BB102)</f>
+        <v>495.65999999999997</v>
+      </c>
+      <c r="BC103" s="6">
+        <f t="shared" si="199"/>
+        <v>512.04</v>
+      </c>
+      <c r="BE103" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF103" s="6">
+        <f>AVERAGE(BF94:BF102)</f>
+        <v>10.584444444444443</v>
+      </c>
+      <c r="BG103" s="6">
+        <f>AVERAGE(BG94:BG102)</f>
+        <v>9.8633333333333333</v>
+      </c>
+      <c r="BH103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI103" s="9">
+        <f>AVERAGE(BI94:BI102)</f>
+        <v>20.447777777777777</v>
+      </c>
+      <c r="BJ103" s="6">
+        <f t="shared" ref="BJ103:BK103" si="200">AVERAGE(BJ94:BJ102)</f>
+        <v>1000.76</v>
+      </c>
+      <c r="BK103" s="6">
+        <f t="shared" si="200"/>
+        <v>1024.04</v>
+      </c>
+    </row>
+    <row r="104" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q104" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="R104" s="7">
+        <f>MIN(R94:R102)</f>
+        <v>9.57</v>
+      </c>
+      <c r="S104" s="7">
+        <f>MIN(S94:S102)</f>
+        <v>27.54</v>
+      </c>
+      <c r="T104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U104" s="7">
+        <f>MIN(U94:U102)</f>
+        <v>37.159999999999997</v>
+      </c>
+      <c r="V104" s="7">
+        <f t="shared" ref="V104:W104" si="201">MIN(V94:V102)</f>
+        <v>178.22</v>
+      </c>
+      <c r="W104" s="7">
+        <f t="shared" si="201"/>
+        <v>194.43</v>
+      </c>
+      <c r="Y104" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z104" s="7">
+        <f>MIN(Z94:Z102)</f>
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="AA104" s="7">
+        <f>MIN(AA94:AA102)</f>
+        <v>11.78</v>
+      </c>
+      <c r="AB104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC104" s="7">
+        <f>MIN(AC94:AC102)</f>
+        <v>20.46</v>
+      </c>
+      <c r="AD104" s="7">
+        <f t="shared" ref="AD104:AE104" si="202">MIN(AD94:AD102)</f>
+        <v>290.86</v>
+      </c>
+      <c r="AE104" s="7">
+        <f t="shared" si="202"/>
+        <v>307.24</v>
+      </c>
+      <c r="AG104" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH104" s="7">
+        <f>MIN(AH94:AH102)</f>
+        <v>8.94</v>
+      </c>
+      <c r="AI104" s="7">
+        <f>MIN(AI94:AI102)</f>
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="AJ104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK104" s="7">
+        <f>MIN(AK94:AK102)</f>
+        <v>17.619999999999997</v>
+      </c>
+      <c r="AL104" s="7">
+        <f t="shared" ref="AL104:AM104" si="203">MIN(AL94:AL102)</f>
+        <v>362.54</v>
+      </c>
+      <c r="AM104" s="7">
+        <f t="shared" si="203"/>
+        <v>378.92</v>
+      </c>
+      <c r="AO104" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP104" s="7">
+        <f>MIN(AP94:AP102)</f>
+        <v>19.010000000000002</v>
+      </c>
+      <c r="AQ104" s="7">
+        <f>MIN(AQ94:AQ102)</f>
+        <v>19.63</v>
+      </c>
+      <c r="AR104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS104" s="7">
+        <f>MIN(AS94:AS102)</f>
+        <v>38.64</v>
+      </c>
+      <c r="AT104" s="7">
+        <f t="shared" ref="AT104:AU104" si="204">MIN(AT94:AT102)</f>
+        <v>393.26</v>
+      </c>
+      <c r="AU104" s="7">
+        <f t="shared" si="204"/>
+        <v>409.64</v>
+      </c>
+      <c r="AW104" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX104" s="7">
+        <f>MIN(AX94:AX102)</f>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AY104" s="7">
+        <f>MIN(AY94:AY102)</f>
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="AZ104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA104" s="7">
+        <f>MIN(BA94:BA102)</f>
+        <v>18.079999999999998</v>
+      </c>
+      <c r="BB104" s="7">
+        <f t="shared" ref="BB104:BC104" si="205">MIN(BB94:BB102)</f>
+        <v>495.66</v>
+      </c>
+      <c r="BC104" s="7">
+        <f t="shared" si="205"/>
+        <v>512.04</v>
+      </c>
+      <c r="BE104" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF104" s="7">
+        <f>MIN(BF94:BF102)</f>
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="BG104" s="7">
+        <f>MIN(BG94:BG102)</f>
+        <v>8.27</v>
+      </c>
+      <c r="BH104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI104" s="7">
+        <f>MIN(BI94:BI102)</f>
+        <v>18.100000000000001</v>
+      </c>
+      <c r="BJ104" s="7">
+        <f t="shared" ref="BJ104:BK104" si="206">MIN(BJ94:BJ102)</f>
+        <v>1000.76</v>
+      </c>
+      <c r="BK104" s="7">
+        <f t="shared" si="206"/>
+        <v>1024.04</v>
+      </c>
+    </row>
+    <row r="105" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q105" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R105" s="7">
+        <f>MAX(R94:R102)</f>
+        <v>21.46</v>
+      </c>
+      <c r="S105" s="7">
+        <f>MAX(S94:S102)</f>
+        <v>51.15</v>
+      </c>
+      <c r="T105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U105" s="7">
+        <f>MAX(U94:U102)</f>
+        <v>72.61</v>
+      </c>
+      <c r="V105" s="7">
+        <f t="shared" ref="V105:W105" si="207">MAX(V94:V102)</f>
+        <v>178.22</v>
+      </c>
+      <c r="W105" s="7">
+        <f t="shared" si="207"/>
+        <v>195.6</v>
+      </c>
+      <c r="Y105" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z105" s="7">
+        <f>MAX(Z94:Z102)</f>
+        <v>11.45</v>
+      </c>
+      <c r="AA105" s="7">
+        <f>MAX(AA94:AA102)</f>
+        <v>16.739999999999998</v>
+      </c>
+      <c r="AB105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC105" s="7">
+        <f>MAX(AC94:AC102)</f>
+        <v>27.259999999999998</v>
+      </c>
+      <c r="AD105" s="7">
+        <f t="shared" ref="AD105:AE105" si="208">MAX(AD94:AD102)</f>
+        <v>290.86</v>
+      </c>
+      <c r="AE105" s="7">
+        <f t="shared" si="208"/>
+        <v>307.24</v>
+      </c>
+      <c r="AG105" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH105" s="7">
+        <f>MAX(AH94:AH102)</f>
+        <v>20.170000000000002</v>
+      </c>
+      <c r="AI105" s="7">
+        <f>MAX(AI94:AI102)</f>
+        <v>17.86</v>
+      </c>
+      <c r="AJ105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK105" s="7">
+        <f>MAX(AK94:AK102)</f>
+        <v>38.03</v>
+      </c>
+      <c r="AL105" s="7">
+        <f t="shared" ref="AL105:AM105" si="209">MAX(AL94:AL102)</f>
+        <v>362.54</v>
+      </c>
+      <c r="AM105" s="7">
+        <f t="shared" si="209"/>
+        <v>378.92</v>
+      </c>
+      <c r="AO105" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP105" s="7">
+        <f>MAX(AP94:AP102)</f>
+        <v>30.48</v>
+      </c>
+      <c r="AQ105" s="7">
+        <f>MAX(AQ94:AQ102)</f>
+        <v>25.1</v>
+      </c>
+      <c r="AR105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS105" s="7">
+        <f>MAX(AS94:AS102)</f>
+        <v>52.85</v>
+      </c>
+      <c r="AT105" s="7">
+        <f t="shared" ref="AT105:AU105" si="210">MAX(AT94:AT102)</f>
+        <v>393.26</v>
+      </c>
+      <c r="AU105" s="7">
+        <f t="shared" si="210"/>
+        <v>409.64</v>
+      </c>
+      <c r="AW105" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX105" s="7">
+        <f>MAX(AX94:AX102)</f>
+        <v>19.14</v>
+      </c>
+      <c r="AY105" s="7">
+        <f>MAX(AY94:AY102)</f>
+        <v>13</v>
+      </c>
+      <c r="AZ105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA105" s="7">
+        <f>MAX(BA94:BA102)</f>
+        <v>30.880000000000003</v>
+      </c>
+      <c r="BB105" s="7">
+        <f t="shared" ref="BB105:BC105" si="211">MAX(BB94:BB102)</f>
+        <v>495.66</v>
+      </c>
+      <c r="BC105" s="7">
+        <f t="shared" si="211"/>
+        <v>512.04</v>
+      </c>
+      <c r="BE105" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF105" s="7">
+        <f>MAX(BF94:BF102)</f>
+        <v>11.88</v>
+      </c>
+      <c r="BG105" s="7">
+        <f>MAX(BG94:BG102)</f>
+        <v>12.34</v>
+      </c>
+      <c r="BH105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI105" s="7">
+        <f>MAX(BI94:BI102)</f>
+        <v>23.060000000000002</v>
+      </c>
+      <c r="BJ105" s="7">
+        <f t="shared" ref="BJ105:BK105" si="212">MAX(BJ94:BJ102)</f>
+        <v>1000.76</v>
+      </c>
+      <c r="BK105" s="7">
+        <f t="shared" si="212"/>
+        <v>1024.04</v>
+      </c>
+    </row>
+    <row r="106" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I106" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N106" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O106" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q106" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R106" s="7">
+        <f>_xlfn.STDEV.S(R94:R102)</f>
+        <v>3.9176686661556572</v>
+      </c>
+      <c r="S106" s="7">
+        <f t="shared" ref="S106" si="213">_xlfn.STDEV.S(S94:S102)</f>
+        <v>8.9902127338567546</v>
+      </c>
+      <c r="T106" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U106" s="7">
+        <f>_xlfn.STDEV.S(U94:U102)</f>
+        <v>11.76456095417266</v>
+      </c>
+      <c r="V106" s="7">
+        <f t="shared" ref="V106:W106" si="214">_xlfn.STDEV.S(V94:V102)</f>
+        <v>0</v>
+      </c>
+      <c r="W106" s="7">
+        <f t="shared" si="214"/>
+        <v>0.46755867130351875</v>
+      </c>
+      <c r="Y106" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z106" s="7">
+        <f>_xlfn.STDEV.S(Z94:Z102)</f>
+        <v>1.0149507377208016</v>
+      </c>
+      <c r="AA106" s="7">
+        <f t="shared" ref="AA106" si="215">_xlfn.STDEV.S(AA94:AA102)</f>
+        <v>1.5510883275945158</v>
+      </c>
+      <c r="AB106" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC106" s="7">
+        <f>_xlfn.STDEV.S(AC94:AC102)</f>
+        <v>2.2846443924602355</v>
+      </c>
+      <c r="AD106" s="7">
+        <f t="shared" ref="AD106:AE106" si="216">_xlfn.STDEV.S(AD94:AD102)</f>
+        <v>6.0291550413456957E-14</v>
+      </c>
+      <c r="AE106" s="7">
+        <f t="shared" si="216"/>
+        <v>0</v>
+      </c>
+      <c r="AG106" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH106" s="7">
+        <f>_xlfn.STDEV.S(AH94:AH102)</f>
+        <v>3.3081444110625631</v>
+      </c>
+      <c r="AI106" s="7">
+        <f t="shared" ref="AI106" si="217">_xlfn.STDEV.S(AI94:AI102)</f>
+        <v>3.203384928478008</v>
+      </c>
+      <c r="AJ106" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK106" s="7">
+        <f>_xlfn.STDEV.S(AK94:AK102)</f>
+        <v>6.2113131551316156</v>
+      </c>
+      <c r="AL106" s="7">
+        <f t="shared" ref="AL106:AM106" si="218">_xlfn.STDEV.S(AL94:AL102)</f>
+        <v>0</v>
+      </c>
+      <c r="AM106" s="7">
+        <f t="shared" si="218"/>
+        <v>0</v>
+      </c>
+      <c r="AO106" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP106" s="7">
+        <f>_xlfn.STDEV.S(AP94:AP102)</f>
+        <v>4.0250728081751772</v>
+      </c>
+      <c r="AQ106" s="7">
+        <f t="shared" ref="AQ106" si="219">_xlfn.STDEV.S(AQ94:AQ102)</f>
+        <v>2.1274267189363885</v>
+      </c>
+      <c r="AR106" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS106" s="7">
+        <f>_xlfn.STDEV.S(AS94:AS102)</f>
+        <v>5.4969774523014348</v>
+      </c>
+      <c r="AT106" s="7">
+        <f t="shared" ref="AT106:AU106" si="220">_xlfn.STDEV.S(AT94:AT102)</f>
+        <v>0</v>
+      </c>
+      <c r="AU106" s="7">
+        <f t="shared" si="220"/>
+        <v>6.0291550413456957E-14</v>
+      </c>
+      <c r="AW106" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX106" s="7">
+        <f>_xlfn.STDEV.S(AX94:AX102)</f>
+        <v>3.2357950250972944</v>
+      </c>
+      <c r="AY106" s="7">
+        <f t="shared" ref="AY106" si="221">_xlfn.STDEV.S(AY94:AY102)</f>
+        <v>1.2049596581536532</v>
+      </c>
+      <c r="AZ106" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA106" s="7">
+        <f>_xlfn.STDEV.S(BA94:BA102)</f>
+        <v>3.8241175452645577</v>
+      </c>
+      <c r="BB106" s="7">
+        <f t="shared" ref="BB106:BC106" si="222">_xlfn.STDEV.S(BB94:BB102)</f>
+        <v>6.0291550413456957E-14</v>
+      </c>
+      <c r="BC106" s="7">
+        <f t="shared" si="222"/>
+        <v>0</v>
+      </c>
+      <c r="BE106" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF106" s="7">
+        <f>_xlfn.STDEV.S(BF94:BF102)</f>
+        <v>0.78710086887118746</v>
+      </c>
+      <c r="BG106" s="7">
+        <f t="shared" ref="BG106" si="223">_xlfn.STDEV.S(BG94:BG102)</f>
+        <v>1.3523498068177489</v>
+      </c>
+      <c r="BH106" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI106" s="7">
+        <f>_xlfn.STDEV.S(BI94:BI102)</f>
+        <v>1.677220750063761</v>
+      </c>
+      <c r="BJ106" s="7">
+        <f t="shared" ref="BJ106:BK106" si="224">_xlfn.STDEV.S(BJ94:BJ102)</f>
+        <v>0</v>
+      </c>
+      <c r="BK106" s="7">
+        <f t="shared" si="224"/>
         <v>0</v>
       </c>
     </row>
